--- a/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830180446677509</v>
+        <v>0.9830180446677497</v>
       </c>
       <c r="D2">
-        <v>1.004663345867175</v>
+        <v>1.004663345867174</v>
       </c>
       <c r="E2">
-        <v>0.9439053577217136</v>
+        <v>0.9439053577217128</v>
       </c>
       <c r="F2">
-        <v>0.9549159763021162</v>
+        <v>0.954915976302115</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037459990189189</v>
       </c>
       <c r="J2">
-        <v>1.005718824770851</v>
+        <v>1.00571882477085</v>
       </c>
       <c r="K2">
-        <v>1.016058092952144</v>
+        <v>1.016058092952143</v>
       </c>
       <c r="L2">
-        <v>0.9562057434841017</v>
+        <v>0.9562057434841008</v>
       </c>
       <c r="M2">
-        <v>0.967041308226379</v>
+        <v>0.9670413082263776</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9932039089452198</v>
+        <v>0.99320390894522</v>
       </c>
       <c r="D3">
         <v>1.01262059457802</v>
       </c>
       <c r="E3">
-        <v>0.9543015857522467</v>
+        <v>0.9543015857522466</v>
       </c>
       <c r="F3">
         <v>0.9674565552235969</v>
@@ -477,16 +477,16 @@
         <v>1.041339086900328</v>
       </c>
       <c r="J3">
-        <v>1.013881572567861</v>
+        <v>1.013881572567862</v>
       </c>
       <c r="K3">
         <v>1.023094499640102</v>
       </c>
       <c r="L3">
-        <v>0.9655546221944915</v>
+        <v>0.9655546221944914</v>
       </c>
       <c r="M3">
-        <v>0.978523495646228</v>
+        <v>0.9785234956462281</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994887600450596</v>
+        <v>0.9994887600450603</v>
       </c>
       <c r="D4">
-        <v>1.017532394262884</v>
+        <v>1.017532394262885</v>
       </c>
       <c r="E4">
-        <v>0.9606476686997693</v>
+        <v>0.9606476686997697</v>
       </c>
       <c r="F4">
-        <v>0.9751387081540122</v>
+        <v>0.975138708154013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043713334227606</v>
+        <v>1.043713334227607</v>
       </c>
       <c r="J4">
-        <v>1.018905552439879</v>
+        <v>1.01890555243988</v>
       </c>
       <c r="K4">
-        <v>1.02742372540088</v>
+        <v>1.027423725400881</v>
       </c>
       <c r="L4">
-        <v>0.971245450434838</v>
+        <v>0.9712454504348386</v>
       </c>
       <c r="M4">
-        <v>0.9855467464288338</v>
+        <v>0.9855467464288346</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.019545566953824</v>
       </c>
       <c r="E5">
-        <v>0.9632333043996921</v>
+        <v>0.9632333043996913</v>
       </c>
       <c r="F5">
-        <v>0.9782750780958908</v>
+        <v>0.9782750780958903</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.029194847867647</v>
       </c>
       <c r="L5">
-        <v>0.9735603702018212</v>
+        <v>0.9735603702018207</v>
       </c>
       <c r="M5">
-        <v>0.988411587834321</v>
+        <v>0.9884115878343207</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002492982152979</v>
+        <v>1.002492982152977</v>
       </c>
       <c r="D6">
-        <v>1.019880684394776</v>
+        <v>1.019880684394775</v>
       </c>
       <c r="E6">
-        <v>0.9636628531603926</v>
+        <v>0.9636628531603925</v>
       </c>
       <c r="F6">
-        <v>0.9787964913150586</v>
+        <v>0.9787964913150579</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04484256329069</v>
+        <v>1.044842563290689</v>
       </c>
       <c r="J6">
-        <v>1.021303456938483</v>
+        <v>1.021303456938482</v>
       </c>
       <c r="K6">
-        <v>1.029489483617272</v>
+        <v>1.029489483617271</v>
       </c>
       <c r="L6">
-        <v>0.973944727102534</v>
+        <v>0.9739447271025337</v>
       </c>
       <c r="M6">
-        <v>0.9888877120419446</v>
+        <v>0.9888877120419436</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9995234280199231</v>
+        <v>0.9995234280199227</v>
       </c>
       <c r="D7">
         <v>1.017559491660523</v>
       </c>
       <c r="E7">
-        <v>0.960682530582724</v>
+        <v>0.9606825305827237</v>
       </c>
       <c r="F7">
-        <v>0.97518097034902</v>
+        <v>0.9751809703490198</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04372638687102</v>
+        <v>1.043726386871019</v>
       </c>
       <c r="J7">
-        <v>1.018933237261694</v>
+        <v>1.018933237261693</v>
       </c>
       <c r="K7">
         <v>1.027447577641438</v>
       </c>
       <c r="L7">
-        <v>0.9712766770673031</v>
+        <v>0.9712766770673029</v>
       </c>
       <c r="M7">
-        <v>0.9855853598206061</v>
+        <v>0.9855853598206059</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9865281281726282</v>
+        <v>0.9865281281726275</v>
       </c>
       <c r="D8">
-        <v>1.007404899754089</v>
+        <v>1.007404899754088</v>
       </c>
       <c r="E8">
-        <v>0.9475035898940186</v>
+        <v>0.9475035898940181</v>
       </c>
       <c r="F8">
-        <v>0.9592504598521943</v>
+        <v>0.9592504598521937</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.038800829528989</v>
       </c>
       <c r="J8">
-        <v>1.008534471410031</v>
+        <v>1.00853447141003</v>
       </c>
       <c r="K8">
-        <v>1.018485492574293</v>
+        <v>1.018485492574292</v>
       </c>
       <c r="L8">
-        <v>0.9594449614659639</v>
+        <v>0.9594449614659633</v>
       </c>
       <c r="M8">
-        <v>0.9710122437922829</v>
+        <v>0.9710122437922825</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9609151451903679</v>
+        <v>0.9609151451903678</v>
       </c>
       <c r="D9">
         <v>0.9874170458452228</v>
       </c>
       <c r="E9">
-        <v>0.9208557618581346</v>
+        <v>0.920855761858134</v>
       </c>
       <c r="F9">
         <v>0.9272827672077606</v>
@@ -711,10 +711,10 @@
         <v>1.000717625908428</v>
       </c>
       <c r="L9">
-        <v>0.9353781939009673</v>
+        <v>0.9353781939009668</v>
       </c>
       <c r="M9">
-        <v>0.9416771697040596</v>
+        <v>0.9416771697040592</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9413353531266001</v>
+        <v>0.9413353531265993</v>
       </c>
       <c r="D10">
-        <v>0.9721711306208553</v>
+        <v>0.9721711306208547</v>
       </c>
       <c r="E10">
-        <v>0.8998311310332879</v>
+        <v>0.8998311310332867</v>
       </c>
       <c r="F10">
-        <v>0.902250995529126</v>
+        <v>0.9022509955291249</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02127489170811</v>
       </c>
       <c r="J10">
-        <v>0.9720866757777115</v>
+        <v>0.9720866757777107</v>
       </c>
       <c r="K10">
-        <v>0.9870617042719686</v>
+        <v>0.9870617042719679</v>
       </c>
       <c r="L10">
-        <v>0.9162796318844721</v>
+        <v>0.916279631884471</v>
       </c>
       <c r="M10">
-        <v>0.9186419625526128</v>
+        <v>0.9186419625526117</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9320369628181823</v>
+        <v>0.9320369628181822</v>
       </c>
       <c r="D11">
         <v>0.9649433848195922</v>
       </c>
       <c r="E11">
-        <v>0.8896254034846411</v>
+        <v>0.8896254034846406</v>
       </c>
       <c r="F11">
-        <v>0.8901522667758547</v>
+        <v>0.8901522667758546</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.017612000819903</v>
       </c>
       <c r="J11">
-        <v>0.9645383872224472</v>
+        <v>0.9645383872224473</v>
       </c>
       <c r="K11">
         <v>0.9805581487231255</v>
       </c>
       <c r="L11">
-        <v>0.9069792896160577</v>
+        <v>0.9069792896160572</v>
       </c>
       <c r="M11">
-        <v>0.9074926028415015</v>
+        <v>0.907492602841501</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284317150903411</v>
+        <v>0.9284317150903431</v>
       </c>
       <c r="D12">
-        <v>0.9621433296923376</v>
+        <v>0.9621433296923394</v>
       </c>
       <c r="E12">
-        <v>0.8856268414972817</v>
+        <v>0.885626841497283</v>
       </c>
       <c r="F12">
-        <v>0.8854206891759803</v>
+        <v>0.8854206891759824</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016187702699297</v>
+        <v>1.016187702699298</v>
       </c>
       <c r="J12">
-        <v>0.9616073144825418</v>
+        <v>0.9616073144825436</v>
       </c>
       <c r="K12">
-        <v>0.9780336093583352</v>
+        <v>0.9780336093583369</v>
       </c>
       <c r="L12">
-        <v>0.9033306539606796</v>
+        <v>0.9033306539606808</v>
       </c>
       <c r="M12">
-        <v>0.9031299632512715</v>
+        <v>0.9031299632512736</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9292124754294313</v>
+        <v>0.9292124754294319</v>
       </c>
       <c r="D13">
-        <v>0.9627496018881864</v>
+        <v>0.9627496018881869</v>
       </c>
       <c r="E13">
-        <v>0.88649481272757</v>
+        <v>0.8864948127275706</v>
       </c>
       <c r="F13">
-        <v>0.8864473720245239</v>
+        <v>0.8864473720245245</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016496337210713</v>
       </c>
       <c r="J13">
-        <v>0.9622422833456283</v>
+        <v>0.9622422833456289</v>
       </c>
       <c r="K13">
-        <v>0.9785804646014044</v>
+        <v>0.9785804646014047</v>
       </c>
       <c r="L13">
-        <v>0.9041228885608018</v>
+        <v>0.9041228885608024</v>
       </c>
       <c r="M13">
-        <v>0.9040766966989906</v>
+        <v>0.904076696698991</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,13 +880,13 @@
         <v>0.9317422419783988</v>
       </c>
       <c r="D14">
-        <v>0.9647144365055119</v>
+        <v>0.964714436505512</v>
       </c>
       <c r="E14">
-        <v>0.8892994235794903</v>
+        <v>0.8892994235794918</v>
       </c>
       <c r="F14">
-        <v>0.8897663491823723</v>
+        <v>0.8897663491823735</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.017495650454402</v>
       </c>
       <c r="J14">
-        <v>0.9642988711184892</v>
+        <v>0.9642988711184894</v>
       </c>
       <c r="K14">
-        <v>0.9803518335537473</v>
+        <v>0.9803518335537472</v>
       </c>
       <c r="L14">
-        <v>0.9066819357575192</v>
+        <v>0.9066819357575207</v>
       </c>
       <c r="M14">
-        <v>0.9071368234401173</v>
+        <v>0.9071368234401186</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332798286999724</v>
+        <v>0.9332798286999699</v>
       </c>
       <c r="D15">
-        <v>0.9659089790067146</v>
+        <v>0.9659089790067125</v>
       </c>
       <c r="E15">
-        <v>0.8909983652847334</v>
+        <v>0.8909983652847311</v>
       </c>
       <c r="F15">
-        <v>0.8917780261584762</v>
+        <v>0.8917780261584732</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018102496367123</v>
+        <v>1.018102496367122</v>
       </c>
       <c r="J15">
-        <v>0.9655482689154122</v>
+        <v>0.9655482689154097</v>
       </c>
       <c r="K15">
-        <v>0.9814280804648591</v>
+        <v>0.981428080464857</v>
       </c>
       <c r="L15">
-        <v>0.9082314897222338</v>
+        <v>0.9082314897222314</v>
       </c>
       <c r="M15">
-        <v>0.9089913049912866</v>
+        <v>0.9089913049912837</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9419329945083884</v>
+        <v>0.9419329945083873</v>
       </c>
       <c r="D16">
-        <v>0.9726359736886327</v>
+        <v>0.9726359736886319</v>
       </c>
       <c r="E16">
-        <v>0.9004819975506262</v>
+        <v>0.9004819975506263</v>
       </c>
       <c r="F16">
-        <v>0.9030236936960988</v>
+        <v>0.9030236936960981</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021509771543855</v>
+        <v>1.021509771543854</v>
       </c>
       <c r="J16">
-        <v>0.9725712759321157</v>
+        <v>0.9725712759321147</v>
       </c>
       <c r="K16">
-        <v>0.987479327825194</v>
+        <v>0.987479327825193</v>
       </c>
       <c r="L16">
-        <v>0.9168721379085784</v>
+        <v>0.9168721379085782</v>
       </c>
       <c r="M16">
-        <v>0.9193537143324192</v>
+        <v>0.9193537143324185</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.947124345825317</v>
+        <v>0.9471243458253163</v>
       </c>
       <c r="D17">
-        <v>0.9766752032045946</v>
+        <v>0.976675203204594</v>
       </c>
       <c r="E17">
-        <v>0.9061107613838197</v>
+        <v>0.9061107613838201</v>
       </c>
       <c r="F17">
-        <v>0.9097117885210546</v>
+        <v>0.9097117885210547</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023547081122904</v>
       </c>
       <c r="J17">
-        <v>0.9767778796927474</v>
+        <v>0.9767778796927472</v>
       </c>
       <c r="K17">
-        <v>0.9911049456606784</v>
+        <v>0.9911049456606779</v>
       </c>
       <c r="L17">
-        <v>0.921992957363223</v>
+        <v>0.9219929573632232</v>
       </c>
       <c r="M17">
-        <v>0.925512586522187</v>
+        <v>0.9255125865221872</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9500755519946191</v>
+        <v>0.9500755519946181</v>
       </c>
       <c r="D18">
-        <v>0.9789725513104264</v>
+        <v>0.9789725513104256</v>
       </c>
       <c r="E18">
-        <v>0.9092911052864063</v>
+        <v>0.9092911052864054</v>
       </c>
       <c r="F18">
-        <v>0.9134952972967976</v>
+        <v>0.9134952972967959</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024702817969728</v>
+        <v>1.024702817969727</v>
       </c>
       <c r="J18">
-        <v>0.9791670043445369</v>
+        <v>0.9791670043445359</v>
       </c>
       <c r="K18">
-        <v>0.9931643933070795</v>
+        <v>0.9931643933070788</v>
       </c>
       <c r="L18">
-        <v>0.9248836726746891</v>
+        <v>0.9248836726746881</v>
       </c>
       <c r="M18">
-        <v>0.9289952991089598</v>
+        <v>0.9289952991089584</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9510695087543924</v>
+        <v>0.9510695087543931</v>
       </c>
       <c r="D19">
-        <v>0.97974646642302</v>
+        <v>0.9797464664230208</v>
       </c>
       <c r="E19">
-        <v>0.9103591141468488</v>
+        <v>0.9103591141468491</v>
       </c>
       <c r="F19">
-        <v>0.9147666241550291</v>
+        <v>0.91476662415503</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025091652716499</v>
       </c>
       <c r="J19">
-        <v>0.9799712821138008</v>
+        <v>0.9799712821138016</v>
       </c>
       <c r="K19">
-        <v>0.9938577297803698</v>
+        <v>0.9938577297803703</v>
       </c>
       <c r="L19">
-        <v>0.925853981870189</v>
+        <v>0.9258539818701894</v>
       </c>
       <c r="M19">
-        <v>0.9301653137188205</v>
+        <v>0.9301653137188212</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9465754811754259</v>
+        <v>0.9465754811754244</v>
       </c>
       <c r="D20">
-        <v>0.9762480301693814</v>
+        <v>0.9762480301693803</v>
       </c>
       <c r="E20">
-        <v>0.9055177375306209</v>
+        <v>0.9055177375306197</v>
       </c>
       <c r="F20">
-        <v>0.9090066688851419</v>
+        <v>0.9090066688851401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023331938452916</v>
+        <v>1.023331938452914</v>
       </c>
       <c r="J20">
-        <v>0.9763333692128671</v>
+        <v>0.9763333692128658</v>
       </c>
       <c r="K20">
-        <v>0.9907217953323825</v>
+        <v>0.9907217953323814</v>
       </c>
       <c r="L20">
-        <v>0.9214537261179956</v>
+        <v>0.9214537261179941</v>
       </c>
       <c r="M20">
-        <v>0.9248634099484536</v>
+        <v>0.9248634099484523</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310017484206896</v>
+        <v>0.9310017484206872</v>
       </c>
       <c r="D21">
-        <v>0.9641392372905571</v>
+        <v>0.9641392372905552</v>
       </c>
       <c r="E21">
-        <v>0.8884796938909767</v>
+        <v>0.8884796938909748</v>
       </c>
       <c r="F21">
-        <v>0.8887960375582981</v>
+        <v>0.8887960375582956</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017203251572077</v>
+        <v>1.017203251572076</v>
       </c>
       <c r="J21">
-        <v>0.9636970083354326</v>
+        <v>0.9636970083354307</v>
       </c>
       <c r="K21">
-        <v>0.9798334139515983</v>
+        <v>0.9798334139515963</v>
       </c>
       <c r="L21">
-        <v>0.9059341130887066</v>
+        <v>0.9059341130887048</v>
       </c>
       <c r="M21">
-        <v>0.9062422509419631</v>
+        <v>0.9062422509419605</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9203108283596612</v>
+        <v>0.9203108283596636</v>
       </c>
       <c r="D22">
-        <v>0.9558411457687646</v>
+        <v>0.9558411457687669</v>
       </c>
       <c r="E22">
-        <v>0.8765298593395479</v>
+        <v>0.8765298593395506</v>
       </c>
       <c r="F22">
-        <v>0.874673529229656</v>
+        <v>0.8746735292296592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012971684861567</v>
+        <v>1.012971684861568</v>
       </c>
       <c r="J22">
-        <v>0.954995907251902</v>
+        <v>0.9549959072519043</v>
       </c>
       <c r="K22">
-        <v>0.972341266275316</v>
+        <v>0.9723412662753184</v>
       </c>
       <c r="L22">
-        <v>0.8950202612025566</v>
+        <v>0.8950202612025593</v>
       </c>
       <c r="M22">
-        <v>0.8932164378556096</v>
+        <v>0.8932164378556128</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9260760596387212</v>
+        <v>0.9260760596387215</v>
       </c>
       <c r="D23">
         <v>0.9603145131894308</v>
       </c>
       <c r="E23">
-        <v>0.8830011280957237</v>
+        <v>0.8830011280957228</v>
       </c>
       <c r="F23">
-        <v>0.8823162069517461</v>
+        <v>0.8823162069517457</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.015255904253394</v>
       </c>
       <c r="J23">
-        <v>0.959690826218593</v>
+        <v>0.9596908262185934</v>
       </c>
       <c r="K23">
-        <v>0.9763832265621273</v>
+        <v>0.9763832265621275</v>
       </c>
       <c r="L23">
-        <v>0.9009333143631257</v>
+        <v>0.9009333143631248</v>
       </c>
       <c r="M23">
-        <v>0.9002668902661098</v>
+        <v>0.9002668902661094</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9468237248871535</v>
+        <v>0.9468237248871555</v>
       </c>
       <c r="D24">
-        <v>0.9764412310644814</v>
+        <v>0.9764412310644832</v>
       </c>
       <c r="E24">
-        <v>0.905786014254446</v>
+        <v>0.9057860142544479</v>
       </c>
       <c r="F24">
-        <v>0.90932564193804</v>
+        <v>0.9093256419380426</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023429252065741</v>
+        <v>1.023429252065742</v>
       </c>
       <c r="J24">
-        <v>0.976534422053892</v>
+        <v>0.9765344220538942</v>
       </c>
       <c r="K24">
-        <v>0.9908950939840523</v>
+        <v>0.990895093984054</v>
       </c>
       <c r="L24">
-        <v>0.9216976759415594</v>
+        <v>0.9216976759415613</v>
       </c>
       <c r="M24">
-        <v>0.9251570806057617</v>
+        <v>0.9251570806057643</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9679179010250984</v>
+        <v>0.967917901025098</v>
       </c>
       <c r="D25">
-        <v>0.9928774941429648</v>
+        <v>0.9928774941429646</v>
       </c>
       <c r="E25">
-        <v>0.9282334142217399</v>
+        <v>0.9282334142217391</v>
       </c>
       <c r="F25">
-        <v>0.9361040820269382</v>
+        <v>0.9361040820269376</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031648089003171</v>
       </c>
       <c r="J25">
-        <v>0.993575386492707</v>
+        <v>0.9935753864927066</v>
       </c>
       <c r="K25">
         <v>1.005587393340145</v>
       </c>
       <c r="L25">
-        <v>0.9420583175567725</v>
+        <v>0.9420583175567717</v>
       </c>
       <c r="M25">
-        <v>0.9497825015828697</v>
+        <v>0.949782501582869</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830180446677497</v>
+        <v>0.9830180446677509</v>
       </c>
       <c r="D2">
-        <v>1.004663345867174</v>
+        <v>1.004663345867175</v>
       </c>
       <c r="E2">
-        <v>0.9439053577217128</v>
+        <v>0.9439053577217136</v>
       </c>
       <c r="F2">
-        <v>0.954915976302115</v>
+        <v>0.9549159763021162</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.037459990189189</v>
       </c>
       <c r="J2">
-        <v>1.00571882477085</v>
+        <v>1.005718824770851</v>
       </c>
       <c r="K2">
-        <v>1.016058092952143</v>
+        <v>1.016058092952144</v>
       </c>
       <c r="L2">
-        <v>0.9562057434841008</v>
+        <v>0.9562057434841017</v>
       </c>
       <c r="M2">
-        <v>0.9670413082263776</v>
+        <v>0.967041308226379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.99320390894522</v>
+        <v>0.9932039089452198</v>
       </c>
       <c r="D3">
         <v>1.01262059457802</v>
       </c>
       <c r="E3">
-        <v>0.9543015857522466</v>
+        <v>0.9543015857522467</v>
       </c>
       <c r="F3">
         <v>0.9674565552235969</v>
@@ -477,16 +477,16 @@
         <v>1.041339086900328</v>
       </c>
       <c r="J3">
-        <v>1.013881572567862</v>
+        <v>1.013881572567861</v>
       </c>
       <c r="K3">
         <v>1.023094499640102</v>
       </c>
       <c r="L3">
-        <v>0.9655546221944914</v>
+        <v>0.9655546221944915</v>
       </c>
       <c r="M3">
-        <v>0.9785234956462281</v>
+        <v>0.978523495646228</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994887600450603</v>
+        <v>0.9994887600450596</v>
       </c>
       <c r="D4">
-        <v>1.017532394262885</v>
+        <v>1.017532394262884</v>
       </c>
       <c r="E4">
-        <v>0.9606476686997697</v>
+        <v>0.9606476686997693</v>
       </c>
       <c r="F4">
-        <v>0.975138708154013</v>
+        <v>0.9751387081540122</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043713334227607</v>
+        <v>1.043713334227606</v>
       </c>
       <c r="J4">
-        <v>1.01890555243988</v>
+        <v>1.018905552439879</v>
       </c>
       <c r="K4">
-        <v>1.027423725400881</v>
+        <v>1.02742372540088</v>
       </c>
       <c r="L4">
-        <v>0.9712454504348386</v>
+        <v>0.971245450434838</v>
       </c>
       <c r="M4">
-        <v>0.9855467464288346</v>
+        <v>0.9855467464288338</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,10 +541,10 @@
         <v>1.019545566953824</v>
       </c>
       <c r="E5">
-        <v>0.9632333043996913</v>
+        <v>0.9632333043996921</v>
       </c>
       <c r="F5">
-        <v>0.9782750780958903</v>
+        <v>0.9782750780958908</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.029194847867647</v>
       </c>
       <c r="L5">
-        <v>0.9735603702018207</v>
+        <v>0.9735603702018212</v>
       </c>
       <c r="M5">
-        <v>0.9884115878343207</v>
+        <v>0.988411587834321</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002492982152977</v>
+        <v>1.002492982152979</v>
       </c>
       <c r="D6">
-        <v>1.019880684394775</v>
+        <v>1.019880684394776</v>
       </c>
       <c r="E6">
-        <v>0.9636628531603925</v>
+        <v>0.9636628531603926</v>
       </c>
       <c r="F6">
-        <v>0.9787964913150579</v>
+        <v>0.9787964913150586</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044842563290689</v>
+        <v>1.04484256329069</v>
       </c>
       <c r="J6">
-        <v>1.021303456938482</v>
+        <v>1.021303456938483</v>
       </c>
       <c r="K6">
-        <v>1.029489483617271</v>
+        <v>1.029489483617272</v>
       </c>
       <c r="L6">
-        <v>0.9739447271025337</v>
+        <v>0.973944727102534</v>
       </c>
       <c r="M6">
-        <v>0.9888877120419436</v>
+        <v>0.9888877120419446</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9995234280199227</v>
+        <v>0.9995234280199231</v>
       </c>
       <c r="D7">
         <v>1.017559491660523</v>
       </c>
       <c r="E7">
-        <v>0.9606825305827237</v>
+        <v>0.960682530582724</v>
       </c>
       <c r="F7">
-        <v>0.9751809703490198</v>
+        <v>0.97518097034902</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043726386871019</v>
+        <v>1.04372638687102</v>
       </c>
       <c r="J7">
-        <v>1.018933237261693</v>
+        <v>1.018933237261694</v>
       </c>
       <c r="K7">
         <v>1.027447577641438</v>
       </c>
       <c r="L7">
-        <v>0.9712766770673029</v>
+        <v>0.9712766770673031</v>
       </c>
       <c r="M7">
-        <v>0.9855853598206059</v>
+        <v>0.9855853598206061</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9865281281726275</v>
+        <v>0.9865281281726282</v>
       </c>
       <c r="D8">
-        <v>1.007404899754088</v>
+        <v>1.007404899754089</v>
       </c>
       <c r="E8">
-        <v>0.9475035898940181</v>
+        <v>0.9475035898940186</v>
       </c>
       <c r="F8">
-        <v>0.9592504598521937</v>
+        <v>0.9592504598521943</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.038800829528989</v>
       </c>
       <c r="J8">
-        <v>1.00853447141003</v>
+        <v>1.008534471410031</v>
       </c>
       <c r="K8">
-        <v>1.018485492574292</v>
+        <v>1.018485492574293</v>
       </c>
       <c r="L8">
-        <v>0.9594449614659633</v>
+        <v>0.9594449614659639</v>
       </c>
       <c r="M8">
-        <v>0.9710122437922825</v>
+        <v>0.9710122437922829</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,13 +687,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9609151451903678</v>
+        <v>0.9609151451903679</v>
       </c>
       <c r="D9">
         <v>0.9874170458452228</v>
       </c>
       <c r="E9">
-        <v>0.920855761858134</v>
+        <v>0.9208557618581346</v>
       </c>
       <c r="F9">
         <v>0.9272827672077606</v>
@@ -711,10 +711,10 @@
         <v>1.000717625908428</v>
       </c>
       <c r="L9">
-        <v>0.9353781939009668</v>
+        <v>0.9353781939009673</v>
       </c>
       <c r="M9">
-        <v>0.9416771697040592</v>
+        <v>0.9416771697040596</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9413353531265993</v>
+        <v>0.9413353531266001</v>
       </c>
       <c r="D10">
-        <v>0.9721711306208547</v>
+        <v>0.9721711306208553</v>
       </c>
       <c r="E10">
-        <v>0.8998311310332867</v>
+        <v>0.8998311310332879</v>
       </c>
       <c r="F10">
-        <v>0.9022509955291249</v>
+        <v>0.902250995529126</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02127489170811</v>
       </c>
       <c r="J10">
-        <v>0.9720866757777107</v>
+        <v>0.9720866757777115</v>
       </c>
       <c r="K10">
-        <v>0.9870617042719679</v>
+        <v>0.9870617042719686</v>
       </c>
       <c r="L10">
-        <v>0.916279631884471</v>
+        <v>0.9162796318844721</v>
       </c>
       <c r="M10">
-        <v>0.9186419625526117</v>
+        <v>0.9186419625526128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9320369628181822</v>
+        <v>0.9320369628181823</v>
       </c>
       <c r="D11">
         <v>0.9649433848195922</v>
       </c>
       <c r="E11">
-        <v>0.8896254034846406</v>
+        <v>0.8896254034846411</v>
       </c>
       <c r="F11">
-        <v>0.8901522667758546</v>
+        <v>0.8901522667758547</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.017612000819903</v>
       </c>
       <c r="J11">
-        <v>0.9645383872224473</v>
+        <v>0.9645383872224472</v>
       </c>
       <c r="K11">
         <v>0.9805581487231255</v>
       </c>
       <c r="L11">
-        <v>0.9069792896160572</v>
+        <v>0.9069792896160577</v>
       </c>
       <c r="M11">
-        <v>0.907492602841501</v>
+        <v>0.9074926028415015</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284317150903431</v>
+        <v>0.9284317150903411</v>
       </c>
       <c r="D12">
-        <v>0.9621433296923394</v>
+        <v>0.9621433296923376</v>
       </c>
       <c r="E12">
-        <v>0.885626841497283</v>
+        <v>0.8856268414972817</v>
       </c>
       <c r="F12">
-        <v>0.8854206891759824</v>
+        <v>0.8854206891759803</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016187702699298</v>
+        <v>1.016187702699297</v>
       </c>
       <c r="J12">
-        <v>0.9616073144825436</v>
+        <v>0.9616073144825418</v>
       </c>
       <c r="K12">
-        <v>0.9780336093583369</v>
+        <v>0.9780336093583352</v>
       </c>
       <c r="L12">
-        <v>0.9033306539606808</v>
+        <v>0.9033306539606796</v>
       </c>
       <c r="M12">
-        <v>0.9031299632512736</v>
+        <v>0.9031299632512715</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9292124754294319</v>
+        <v>0.9292124754294313</v>
       </c>
       <c r="D13">
-        <v>0.9627496018881869</v>
+        <v>0.9627496018881864</v>
       </c>
       <c r="E13">
-        <v>0.8864948127275706</v>
+        <v>0.88649481272757</v>
       </c>
       <c r="F13">
-        <v>0.8864473720245245</v>
+        <v>0.8864473720245239</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.016496337210713</v>
       </c>
       <c r="J13">
-        <v>0.9622422833456289</v>
+        <v>0.9622422833456283</v>
       </c>
       <c r="K13">
-        <v>0.9785804646014047</v>
+        <v>0.9785804646014044</v>
       </c>
       <c r="L13">
-        <v>0.9041228885608024</v>
+        <v>0.9041228885608018</v>
       </c>
       <c r="M13">
-        <v>0.904076696698991</v>
+        <v>0.9040766966989906</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,13 +880,13 @@
         <v>0.9317422419783988</v>
       </c>
       <c r="D14">
-        <v>0.964714436505512</v>
+        <v>0.9647144365055119</v>
       </c>
       <c r="E14">
-        <v>0.8892994235794918</v>
+        <v>0.8892994235794903</v>
       </c>
       <c r="F14">
-        <v>0.8897663491823735</v>
+        <v>0.8897663491823723</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.017495650454402</v>
       </c>
       <c r="J14">
-        <v>0.9642988711184894</v>
+        <v>0.9642988711184892</v>
       </c>
       <c r="K14">
-        <v>0.9803518335537472</v>
+        <v>0.9803518335537473</v>
       </c>
       <c r="L14">
-        <v>0.9066819357575207</v>
+        <v>0.9066819357575192</v>
       </c>
       <c r="M14">
-        <v>0.9071368234401186</v>
+        <v>0.9071368234401173</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332798286999699</v>
+        <v>0.9332798286999724</v>
       </c>
       <c r="D15">
-        <v>0.9659089790067125</v>
+        <v>0.9659089790067146</v>
       </c>
       <c r="E15">
-        <v>0.8909983652847311</v>
+        <v>0.8909983652847334</v>
       </c>
       <c r="F15">
-        <v>0.8917780261584732</v>
+        <v>0.8917780261584762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018102496367122</v>
+        <v>1.018102496367123</v>
       </c>
       <c r="J15">
-        <v>0.9655482689154097</v>
+        <v>0.9655482689154122</v>
       </c>
       <c r="K15">
-        <v>0.981428080464857</v>
+        <v>0.9814280804648591</v>
       </c>
       <c r="L15">
-        <v>0.9082314897222314</v>
+        <v>0.9082314897222338</v>
       </c>
       <c r="M15">
-        <v>0.9089913049912837</v>
+        <v>0.9089913049912866</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9419329945083873</v>
+        <v>0.9419329945083884</v>
       </c>
       <c r="D16">
-        <v>0.9726359736886319</v>
+        <v>0.9726359736886327</v>
       </c>
       <c r="E16">
-        <v>0.9004819975506263</v>
+        <v>0.9004819975506262</v>
       </c>
       <c r="F16">
-        <v>0.9030236936960981</v>
+        <v>0.9030236936960988</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021509771543854</v>
+        <v>1.021509771543855</v>
       </c>
       <c r="J16">
-        <v>0.9725712759321147</v>
+        <v>0.9725712759321157</v>
       </c>
       <c r="K16">
-        <v>0.987479327825193</v>
+        <v>0.987479327825194</v>
       </c>
       <c r="L16">
-        <v>0.9168721379085782</v>
+        <v>0.9168721379085784</v>
       </c>
       <c r="M16">
-        <v>0.9193537143324185</v>
+        <v>0.9193537143324192</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9471243458253163</v>
+        <v>0.947124345825317</v>
       </c>
       <c r="D17">
-        <v>0.976675203204594</v>
+        <v>0.9766752032045946</v>
       </c>
       <c r="E17">
-        <v>0.9061107613838201</v>
+        <v>0.9061107613838197</v>
       </c>
       <c r="F17">
-        <v>0.9097117885210547</v>
+        <v>0.9097117885210546</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.023547081122904</v>
       </c>
       <c r="J17">
-        <v>0.9767778796927472</v>
+        <v>0.9767778796927474</v>
       </c>
       <c r="K17">
-        <v>0.9911049456606779</v>
+        <v>0.9911049456606784</v>
       </c>
       <c r="L17">
-        <v>0.9219929573632232</v>
+        <v>0.921992957363223</v>
       </c>
       <c r="M17">
-        <v>0.9255125865221872</v>
+        <v>0.925512586522187</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9500755519946181</v>
+        <v>0.9500755519946191</v>
       </c>
       <c r="D18">
-        <v>0.9789725513104256</v>
+        <v>0.9789725513104264</v>
       </c>
       <c r="E18">
-        <v>0.9092911052864054</v>
+        <v>0.9092911052864063</v>
       </c>
       <c r="F18">
-        <v>0.9134952972967959</v>
+        <v>0.9134952972967976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024702817969727</v>
+        <v>1.024702817969728</v>
       </c>
       <c r="J18">
-        <v>0.9791670043445359</v>
+        <v>0.9791670043445369</v>
       </c>
       <c r="K18">
-        <v>0.9931643933070788</v>
+        <v>0.9931643933070795</v>
       </c>
       <c r="L18">
-        <v>0.9248836726746881</v>
+        <v>0.9248836726746891</v>
       </c>
       <c r="M18">
-        <v>0.9289952991089584</v>
+        <v>0.9289952991089598</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9510695087543931</v>
+        <v>0.9510695087543924</v>
       </c>
       <c r="D19">
-        <v>0.9797464664230208</v>
+        <v>0.97974646642302</v>
       </c>
       <c r="E19">
-        <v>0.9103591141468491</v>
+        <v>0.9103591141468488</v>
       </c>
       <c r="F19">
-        <v>0.91476662415503</v>
+        <v>0.9147666241550291</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025091652716499</v>
       </c>
       <c r="J19">
-        <v>0.9799712821138016</v>
+        <v>0.9799712821138008</v>
       </c>
       <c r="K19">
-        <v>0.9938577297803703</v>
+        <v>0.9938577297803698</v>
       </c>
       <c r="L19">
-        <v>0.9258539818701894</v>
+        <v>0.925853981870189</v>
       </c>
       <c r="M19">
-        <v>0.9301653137188212</v>
+        <v>0.9301653137188205</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9465754811754244</v>
+        <v>0.9465754811754259</v>
       </c>
       <c r="D20">
-        <v>0.9762480301693803</v>
+        <v>0.9762480301693814</v>
       </c>
       <c r="E20">
-        <v>0.9055177375306197</v>
+        <v>0.9055177375306209</v>
       </c>
       <c r="F20">
-        <v>0.9090066688851401</v>
+        <v>0.9090066688851419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023331938452914</v>
+        <v>1.023331938452916</v>
       </c>
       <c r="J20">
-        <v>0.9763333692128658</v>
+        <v>0.9763333692128671</v>
       </c>
       <c r="K20">
-        <v>0.9907217953323814</v>
+        <v>0.9907217953323825</v>
       </c>
       <c r="L20">
-        <v>0.9214537261179941</v>
+        <v>0.9214537261179956</v>
       </c>
       <c r="M20">
-        <v>0.9248634099484523</v>
+        <v>0.9248634099484536</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310017484206872</v>
+        <v>0.9310017484206896</v>
       </c>
       <c r="D21">
-        <v>0.9641392372905552</v>
+        <v>0.9641392372905571</v>
       </c>
       <c r="E21">
-        <v>0.8884796938909748</v>
+        <v>0.8884796938909767</v>
       </c>
       <c r="F21">
-        <v>0.8887960375582956</v>
+        <v>0.8887960375582981</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017203251572076</v>
+        <v>1.017203251572077</v>
       </c>
       <c r="J21">
-        <v>0.9636970083354307</v>
+        <v>0.9636970083354326</v>
       </c>
       <c r="K21">
-        <v>0.9798334139515963</v>
+        <v>0.9798334139515983</v>
       </c>
       <c r="L21">
-        <v>0.9059341130887048</v>
+        <v>0.9059341130887066</v>
       </c>
       <c r="M21">
-        <v>0.9062422509419605</v>
+        <v>0.9062422509419631</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9203108283596636</v>
+        <v>0.9203108283596612</v>
       </c>
       <c r="D22">
-        <v>0.9558411457687669</v>
+        <v>0.9558411457687646</v>
       </c>
       <c r="E22">
-        <v>0.8765298593395506</v>
+        <v>0.8765298593395479</v>
       </c>
       <c r="F22">
-        <v>0.8746735292296592</v>
+        <v>0.874673529229656</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012971684861568</v>
+        <v>1.012971684861567</v>
       </c>
       <c r="J22">
-        <v>0.9549959072519043</v>
+        <v>0.954995907251902</v>
       </c>
       <c r="K22">
-        <v>0.9723412662753184</v>
+        <v>0.972341266275316</v>
       </c>
       <c r="L22">
-        <v>0.8950202612025593</v>
+        <v>0.8950202612025566</v>
       </c>
       <c r="M22">
-        <v>0.8932164378556128</v>
+        <v>0.8932164378556096</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9260760596387215</v>
+        <v>0.9260760596387212</v>
       </c>
       <c r="D23">
         <v>0.9603145131894308</v>
       </c>
       <c r="E23">
-        <v>0.8830011280957228</v>
+        <v>0.8830011280957237</v>
       </c>
       <c r="F23">
-        <v>0.8823162069517457</v>
+        <v>0.8823162069517461</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.015255904253394</v>
       </c>
       <c r="J23">
-        <v>0.9596908262185934</v>
+        <v>0.959690826218593</v>
       </c>
       <c r="K23">
-        <v>0.9763832265621275</v>
+        <v>0.9763832265621273</v>
       </c>
       <c r="L23">
-        <v>0.9009333143631248</v>
+        <v>0.9009333143631257</v>
       </c>
       <c r="M23">
-        <v>0.9002668902661094</v>
+        <v>0.9002668902661098</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9468237248871555</v>
+        <v>0.9468237248871535</v>
       </c>
       <c r="D24">
-        <v>0.9764412310644832</v>
+        <v>0.9764412310644814</v>
       </c>
       <c r="E24">
-        <v>0.9057860142544479</v>
+        <v>0.905786014254446</v>
       </c>
       <c r="F24">
-        <v>0.9093256419380426</v>
+        <v>0.90932564193804</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023429252065742</v>
+        <v>1.023429252065741</v>
       </c>
       <c r="J24">
-        <v>0.9765344220538942</v>
+        <v>0.976534422053892</v>
       </c>
       <c r="K24">
-        <v>0.990895093984054</v>
+        <v>0.9908950939840523</v>
       </c>
       <c r="L24">
-        <v>0.9216976759415613</v>
+        <v>0.9216976759415594</v>
       </c>
       <c r="M24">
-        <v>0.9251570806057643</v>
+        <v>0.9251570806057617</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.967917901025098</v>
+        <v>0.9679179010250984</v>
       </c>
       <c r="D25">
-        <v>0.9928774941429646</v>
+        <v>0.9928774941429648</v>
       </c>
       <c r="E25">
-        <v>0.9282334142217391</v>
+        <v>0.9282334142217399</v>
       </c>
       <c r="F25">
-        <v>0.9361040820269376</v>
+        <v>0.9361040820269382</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.031648089003171</v>
       </c>
       <c r="J25">
-        <v>0.9935753864927066</v>
+        <v>0.993575386492707</v>
       </c>
       <c r="K25">
         <v>1.005587393340145</v>
       </c>
       <c r="L25">
-        <v>0.9420583175567717</v>
+        <v>0.9420583175567725</v>
       </c>
       <c r="M25">
-        <v>0.949782501582869</v>
+        <v>0.9497825015828697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9830180446677509</v>
+        <v>0.9862326079968746</v>
       </c>
       <c r="D2">
-        <v>1.004663345867175</v>
+        <v>1.007278886248782</v>
       </c>
       <c r="E2">
-        <v>0.9439053577217136</v>
+        <v>0.9449972852734563</v>
       </c>
       <c r="F2">
-        <v>0.9549159763021162</v>
+        <v>0.9573064190039876</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037459990189189</v>
+        <v>1.038924639300296</v>
       </c>
       <c r="J2">
-        <v>1.005718824770851</v>
+        <v>1.008833044268315</v>
       </c>
       <c r="K2">
-        <v>1.016058092952144</v>
+        <v>1.018637737563829</v>
       </c>
       <c r="L2">
-        <v>0.9562057434841017</v>
+        <v>0.9572800771113633</v>
       </c>
       <c r="M2">
-        <v>0.967041308226379</v>
+        <v>0.9693944261687264</v>
+      </c>
+      <c r="N2">
+        <v>1.010265702905944</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9932039089452198</v>
+        <v>0.9963852421587912</v>
       </c>
       <c r="D3">
-        <v>1.01262059457802</v>
+        <v>1.015213716337293</v>
       </c>
       <c r="E3">
-        <v>0.9543015857522467</v>
+        <v>0.9553604285308327</v>
       </c>
       <c r="F3">
-        <v>0.9674565552235969</v>
+        <v>0.969802387776812</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041339086900328</v>
+        <v>1.042793206664121</v>
       </c>
       <c r="J3">
-        <v>1.013881572567861</v>
+        <v>1.016974936535137</v>
       </c>
       <c r="K3">
-        <v>1.023094499640102</v>
+        <v>1.025655566325236</v>
       </c>
       <c r="L3">
-        <v>0.9655546221944915</v>
+        <v>0.9665982459879439</v>
       </c>
       <c r="M3">
-        <v>0.978523495646228</v>
+        <v>0.9808368118580466</v>
+      </c>
+      <c r="N3">
+        <v>1.018419157593672</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9994887600450596</v>
+        <v>1.002651554372797</v>
       </c>
       <c r="D4">
-        <v>1.017532394262884</v>
+        <v>1.020113132002129</v>
       </c>
       <c r="E4">
-        <v>0.9606476686997693</v>
+        <v>0.9616883950919063</v>
       </c>
       <c r="F4">
-        <v>0.9751387081540122</v>
+        <v>0.9774599223746534</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043713334227606</v>
+        <v>1.045161779588235</v>
       </c>
       <c r="J4">
-        <v>1.018905552439879</v>
+        <v>1.021987675460902</v>
       </c>
       <c r="K4">
-        <v>1.02742372540088</v>
+        <v>1.029974721568649</v>
       </c>
       <c r="L4">
-        <v>0.971245450434838</v>
+        <v>0.9722723104915922</v>
       </c>
       <c r="M4">
-        <v>0.9855467464288338</v>
+        <v>0.9878382203801934</v>
+      </c>
+      <c r="N4">
+        <v>1.023439015183681</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002064275171481</v>
+        <v>1.005219883312659</v>
       </c>
       <c r="D5">
-        <v>1.019545566953824</v>
+        <v>1.022121533381414</v>
       </c>
       <c r="E5">
-        <v>0.9632333043996921</v>
+        <v>0.9642670766370255</v>
       </c>
       <c r="F5">
-        <v>0.9782750780958908</v>
+        <v>0.980586800395957</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044681655424071</v>
+        <v>1.046127949006963</v>
       </c>
       <c r="J5">
-        <v>1.02096141957647</v>
+        <v>1.024039276619797</v>
       </c>
       <c r="K5">
-        <v>1.029194847867647</v>
+        <v>1.031742009373726</v>
       </c>
       <c r="L5">
-        <v>0.9735603702018212</v>
+        <v>0.9745808082279895</v>
       </c>
       <c r="M5">
-        <v>0.988411587834321</v>
+        <v>0.9906946694730684</v>
+      </c>
+      <c r="N5">
+        <v>1.025493529851544</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002492982152979</v>
+        <v>1.005647416779911</v>
       </c>
       <c r="D6">
-        <v>1.019880684394776</v>
+        <v>1.022455873374832</v>
       </c>
       <c r="E6">
-        <v>0.9636628531603926</v>
+        <v>0.9646954934728672</v>
       </c>
       <c r="F6">
-        <v>0.9787964913150586</v>
+        <v>0.9811066662288627</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04484256329069</v>
+        <v>1.046288508317218</v>
       </c>
       <c r="J6">
-        <v>1.021303456938483</v>
+        <v>1.024380622672212</v>
       </c>
       <c r="K6">
-        <v>1.029489483617272</v>
+        <v>1.032036022967145</v>
       </c>
       <c r="L6">
-        <v>0.973944727102534</v>
+        <v>0.9749641205930265</v>
       </c>
       <c r="M6">
-        <v>0.9888877120419446</v>
+        <v>0.9911694272857938</v>
+      </c>
+      <c r="N6">
+        <v>1.025835360654506</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9995234280199231</v>
+        <v>1.002686124056203</v>
       </c>
       <c r="D7">
-        <v>1.017559491660523</v>
+        <v>1.020140164020922</v>
       </c>
       <c r="E7">
-        <v>0.960682530582724</v>
+        <v>0.9617231615962513</v>
       </c>
       <c r="F7">
-        <v>0.97518097034902</v>
+        <v>0.9775020545510414</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04372638687102</v>
+        <v>1.045174802605974</v>
       </c>
       <c r="J7">
-        <v>1.018933237261694</v>
+        <v>1.022015301566368</v>
       </c>
       <c r="K7">
-        <v>1.027447577641438</v>
+        <v>1.029998521081094</v>
       </c>
       <c r="L7">
-        <v>0.9712766770673031</v>
+        <v>0.9723034489906547</v>
       </c>
       <c r="M7">
-        <v>0.9855853598206061</v>
+        <v>0.9878767186966743</v>
+      </c>
+      <c r="N7">
+        <v>1.023466680521386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9865281281726282</v>
+        <v>0.9897307785465514</v>
       </c>
       <c r="D8">
-        <v>1.007404899754089</v>
+        <v>1.010012374478812</v>
       </c>
       <c r="E8">
-        <v>0.9475035898940186</v>
+        <v>0.9485835682033784</v>
       </c>
       <c r="F8">
-        <v>0.9592504598521943</v>
+        <v>0.961624837912749</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038800829528989</v>
+        <v>1.040261657938242</v>
       </c>
       <c r="J8">
-        <v>1.008534471410031</v>
+        <v>1.011641121570795</v>
       </c>
       <c r="K8">
-        <v>1.018485492574293</v>
+        <v>1.021058408506218</v>
       </c>
       <c r="L8">
-        <v>0.9594449614659639</v>
+        <v>0.9605081917850186</v>
       </c>
       <c r="M8">
-        <v>0.9710122437922829</v>
+        <v>0.9733510003115623</v>
+      </c>
+      <c r="N8">
+        <v>1.013077768000284</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9609151451903679</v>
+        <v>0.964217174895347</v>
       </c>
       <c r="D9">
-        <v>0.9874170458452228</v>
+        <v>0.9900925357498676</v>
       </c>
       <c r="E9">
-        <v>0.9208557618581346</v>
+        <v>0.9220383110269086</v>
       </c>
       <c r="F9">
-        <v>0.9272827672077606</v>
+        <v>0.9297936414779155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028931327729546</v>
+        <v>1.030425166427772</v>
       </c>
       <c r="J9">
-        <v>0.9879278181837263</v>
+        <v>0.99110002795153</v>
       </c>
       <c r="K9">
-        <v>1.000717625908428</v>
+        <v>1.003348426232193</v>
       </c>
       <c r="L9">
-        <v>0.9353781939009673</v>
+        <v>0.9365370097413959</v>
       </c>
       <c r="M9">
-        <v>0.9416771697040596</v>
+        <v>0.9441386569052345</v>
+      </c>
+      <c r="N9">
+        <v>0.9925075036719834</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9413353531266001</v>
+        <v>0.9447363840857776</v>
       </c>
       <c r="D10">
-        <v>0.9721711306208553</v>
+        <v>0.9749155695323636</v>
       </c>
       <c r="E10">
-        <v>0.8998311310332879</v>
+        <v>0.9011220773715042</v>
       </c>
       <c r="F10">
-        <v>0.902250995529126</v>
+        <v>0.904903412724911</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02127489170811</v>
+        <v>1.022803377193569</v>
       </c>
       <c r="J10">
-        <v>0.9720866757777115</v>
+        <v>0.9753281757143915</v>
       </c>
       <c r="K10">
-        <v>0.9870617042719686</v>
+        <v>0.9897529985395026</v>
       </c>
       <c r="L10">
-        <v>0.9162796318844721</v>
+        <v>0.9175398335722413</v>
       </c>
       <c r="M10">
-        <v>0.9186419625526128</v>
+        <v>0.9212317903083211</v>
+      </c>
+      <c r="N10">
+        <v>0.9767132535956112</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9320369628181823</v>
+        <v>0.935493926359881</v>
       </c>
       <c r="D11">
-        <v>0.9649433848195922</v>
+        <v>0.9677271516034417</v>
       </c>
       <c r="E11">
-        <v>0.8896254034846411</v>
+        <v>0.8909801954833083</v>
       </c>
       <c r="F11">
-        <v>0.8901522667758547</v>
+        <v>0.8928870472329618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017612000819903</v>
+        <v>1.019160566741633</v>
       </c>
       <c r="J11">
-        <v>0.9645383872224472</v>
+        <v>0.967820264948499</v>
       </c>
       <c r="K11">
-        <v>0.9805581487231255</v>
+        <v>0.9832844766909538</v>
       </c>
       <c r="L11">
-        <v>0.9069792896160577</v>
+        <v>0.9082992823616071</v>
       </c>
       <c r="M11">
-        <v>0.9074926028415015</v>
+        <v>0.9101573964436029</v>
+      </c>
+      <c r="N11">
+        <v>0.9691946807352617</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284317150903411</v>
+        <v>0.9319121914810973</v>
       </c>
       <c r="D12">
-        <v>0.9621433296923376</v>
+        <v>0.9649436974253226</v>
       </c>
       <c r="E12">
-        <v>0.8856268414972817</v>
+        <v>0.8870090171313084</v>
       </c>
       <c r="F12">
-        <v>0.8854206891759803</v>
+        <v>0.8881905975846686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016187702699297</v>
+        <v>1.017744797118532</v>
       </c>
       <c r="J12">
-        <v>0.9616073144825418</v>
+        <v>0.964906385596764</v>
       </c>
       <c r="K12">
-        <v>0.9780336093583352</v>
+        <v>0.9807748161726254</v>
       </c>
       <c r="L12">
-        <v>0.9033306539606796</v>
+        <v>0.9046763004524564</v>
       </c>
       <c r="M12">
-        <v>0.9031299632512715</v>
+        <v>0.9058267754806488</v>
+      </c>
+      <c r="N12">
+        <v>0.9662766633406208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9292124754294313</v>
+        <v>0.9326877671750737</v>
       </c>
       <c r="D13">
-        <v>0.9627496018881864</v>
+        <v>0.9655463057784147</v>
       </c>
       <c r="E13">
-        <v>0.88649481272757</v>
+        <v>0.8878709228560604</v>
       </c>
       <c r="F13">
-        <v>0.8864473720245239</v>
+        <v>0.889209509263626</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.016496337210713</v>
+        <v>1.018051546979691</v>
       </c>
       <c r="J13">
-        <v>0.9622422833456283</v>
+        <v>0.9655375528463129</v>
       </c>
       <c r="K13">
-        <v>0.9785804646014044</v>
+        <v>0.9813183834106692</v>
       </c>
       <c r="L13">
-        <v>0.9041228885608018</v>
+        <v>0.9054628523599053</v>
       </c>
       <c r="M13">
-        <v>0.9040766966989906</v>
+        <v>0.9067664235428683</v>
+      </c>
+      <c r="N13">
+        <v>0.9669087269200601</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9317422419783988</v>
+        <v>0.9352010872487749</v>
       </c>
       <c r="D14">
-        <v>0.9647144365055119</v>
+        <v>0.9674995304346573</v>
       </c>
       <c r="E14">
-        <v>0.8892994235794903</v>
+        <v>0.8906563953405989</v>
       </c>
       <c r="F14">
-        <v>0.8897663491823723</v>
+        <v>0.8925039300301941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017495650454402</v>
+        <v>1.019044897127283</v>
       </c>
       <c r="J14">
-        <v>0.9642988711184892</v>
+        <v>0.9675821202975677</v>
       </c>
       <c r="K14">
-        <v>0.9803518335537473</v>
+        <v>0.983079349151572</v>
       </c>
       <c r="L14">
-        <v>0.9066819357575192</v>
+        <v>0.9080039704024958</v>
       </c>
       <c r="M14">
-        <v>0.9071368234401173</v>
+        <v>0.9098041686510162</v>
+      </c>
+      <c r="N14">
+        <v>0.9689561978916107</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332798286999724</v>
+        <v>0.9367289337445268</v>
       </c>
       <c r="D15">
-        <v>0.9659089790067146</v>
+        <v>0.9686872060919909</v>
       </c>
       <c r="E15">
-        <v>0.8909983652847334</v>
+        <v>0.8923440763374281</v>
       </c>
       <c r="F15">
-        <v>0.8917780261584762</v>
+        <v>0.8945011321733263</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018102496367123</v>
+        <v>1.019648222789366</v>
       </c>
       <c r="J15">
-        <v>0.9655482689154122</v>
+        <v>0.9688244279221636</v>
       </c>
       <c r="K15">
-        <v>0.9814280804648591</v>
+        <v>0.9841494546773123</v>
       </c>
       <c r="L15">
-        <v>0.9082314897222338</v>
+        <v>0.9095429762003888</v>
       </c>
       <c r="M15">
-        <v>0.9089913049912866</v>
+        <v>0.9116454630709616</v>
+      </c>
+      <c r="N15">
+        <v>0.9702002697355279</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9419329945083884</v>
+        <v>0.9453306459656646</v>
       </c>
       <c r="D16">
-        <v>0.9726359736886327</v>
+        <v>0.9753780442083435</v>
       </c>
       <c r="E16">
-        <v>0.9004819975506262</v>
+        <v>0.9017691455033445</v>
       </c>
       <c r="F16">
-        <v>0.9030236936960988</v>
+        <v>0.9056711891750481</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021509771543855</v>
+        <v>1.023037053999921</v>
       </c>
       <c r="J16">
-        <v>0.9725712759321157</v>
+        <v>0.9758103616861173</v>
       </c>
       <c r="K16">
-        <v>0.987479327825194</v>
+        <v>0.9901685229567202</v>
       </c>
       <c r="L16">
-        <v>0.9168721379085784</v>
+        <v>0.9181287836736327</v>
       </c>
       <c r="M16">
-        <v>0.9193537143324192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9219390678896255</v>
+      </c>
+      <c r="N16">
+        <v>0.9771961243267244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.947124345825317</v>
+        <v>0.9504936528569171</v>
       </c>
       <c r="D17">
-        <v>0.9766752032045946</v>
+        <v>0.9793974476827917</v>
       </c>
       <c r="E17">
-        <v>0.9061107613838197</v>
+        <v>0.9073663214201428</v>
       </c>
       <c r="F17">
-        <v>0.9097117885210546</v>
+        <v>0.9123182532778543</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023547081122904</v>
+        <v>1.025064324750053</v>
       </c>
       <c r="J17">
-        <v>0.9767778796927474</v>
+        <v>0.9799968424903164</v>
       </c>
       <c r="K17">
-        <v>0.9911049456606784</v>
+        <v>0.9937766219573434</v>
       </c>
       <c r="L17">
-        <v>0.921992957363223</v>
+        <v>0.9232200387300838</v>
       </c>
       <c r="M17">
-        <v>0.925512586522187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9280606683177275</v>
+      </c>
+      <c r="N17">
+        <v>0.9813885504138616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9500755519946191</v>
+        <v>0.9534295197665078</v>
       </c>
       <c r="D18">
-        <v>0.9789725513104264</v>
+        <v>0.9816840961982406</v>
       </c>
       <c r="E18">
-        <v>0.9092911052864063</v>
+        <v>0.9105297734728793</v>
       </c>
       <c r="F18">
-        <v>0.9134952972967976</v>
+        <v>0.9160797435639527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024702817969728</v>
+        <v>1.026214669485644</v>
       </c>
       <c r="J18">
-        <v>0.9791670043445369</v>
+        <v>0.9823751755392652</v>
       </c>
       <c r="K18">
-        <v>0.9931643933070795</v>
+        <v>0.995826657408572</v>
       </c>
       <c r="L18">
-        <v>0.9248836726746891</v>
+        <v>0.926094950396831</v>
       </c>
       <c r="M18">
-        <v>0.9289952991089598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9315234022966138</v>
+      </c>
+      <c r="N18">
+        <v>0.9837702609685384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9510695087543924</v>
+        <v>0.9544184311002734</v>
       </c>
       <c r="D19">
-        <v>0.97974646642302</v>
+        <v>0.9824544967873537</v>
       </c>
       <c r="E19">
-        <v>0.9103591141468488</v>
+        <v>0.9115922576136852</v>
       </c>
       <c r="F19">
-        <v>0.9147666241550291</v>
+        <v>0.917343856800242</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025091652716499</v>
+        <v>1.026601737325656</v>
       </c>
       <c r="J19">
-        <v>0.9799712821138008</v>
+        <v>0.9831759197066157</v>
       </c>
       <c r="K19">
-        <v>0.9938577297803698</v>
+        <v>0.9965169091741752</v>
       </c>
       <c r="L19">
-        <v>0.925853981870189</v>
+        <v>0.9270600918647045</v>
       </c>
       <c r="M19">
-        <v>0.9301653137188205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9326868753763209</v>
+      </c>
+      <c r="N19">
+        <v>0.9845721422844534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9465754811754259</v>
+        <v>0.949947701468294</v>
       </c>
       <c r="D20">
-        <v>0.9762480301693814</v>
+        <v>0.9789723091576314</v>
       </c>
       <c r="E20">
-        <v>0.9055177375306209</v>
+        <v>0.9067765218579303</v>
       </c>
       <c r="F20">
-        <v>0.9090066688851419</v>
+        <v>0.9116173302611006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023331938452916</v>
+        <v>1.024850209498647</v>
       </c>
       <c r="J20">
-        <v>0.9763333692128671</v>
+        <v>0.9795543896126884</v>
       </c>
       <c r="K20">
-        <v>0.9907217953323825</v>
+        <v>0.9933952648187692</v>
       </c>
       <c r="L20">
-        <v>0.9214537261179956</v>
+        <v>0.9226838245851959</v>
       </c>
       <c r="M20">
-        <v>0.9248634099484536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9274153014597155</v>
+      </c>
+      <c r="N20">
+        <v>0.9809454692023972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310017484206896</v>
+        <v>0.93446535284615</v>
       </c>
       <c r="D21">
-        <v>0.9641392372905571</v>
+        <v>0.9669276888757353</v>
       </c>
       <c r="E21">
-        <v>0.8884796938909767</v>
+        <v>0.8898421877213994</v>
       </c>
       <c r="F21">
-        <v>0.8887960375582981</v>
+        <v>0.8915407094654761</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017203251572077</v>
+        <v>1.018754221367758</v>
       </c>
       <c r="J21">
-        <v>0.9636970083354326</v>
+        <v>0.9669837296808788</v>
       </c>
       <c r="K21">
-        <v>0.9798334139515983</v>
+        <v>0.9825639356921391</v>
       </c>
       <c r="L21">
-        <v>0.9059341130887066</v>
+        <v>0.9072613206831245</v>
       </c>
       <c r="M21">
-        <v>0.9062422509419631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9089160579770101</v>
+      </c>
+      <c r="N21">
+        <v>0.9683569574916097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9203108283596612</v>
+        <v>0.9238484918985392</v>
       </c>
       <c r="D22">
-        <v>0.9558411457687646</v>
+        <v>0.9586820432814347</v>
       </c>
       <c r="E22">
-        <v>0.8765298593395479</v>
+        <v>0.8779799503739583</v>
       </c>
       <c r="F22">
-        <v>0.874673529229656</v>
+        <v>0.8775300941274912</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012971684861567</v>
+        <v>1.014549709650204</v>
       </c>
       <c r="J22">
-        <v>0.954995907251902</v>
+        <v>0.9583372767783929</v>
       </c>
       <c r="K22">
-        <v>0.972341266275316</v>
+        <v>0.9751189919730756</v>
       </c>
       <c r="L22">
-        <v>0.8950202612025566</v>
+        <v>0.8964295470352783</v>
       </c>
       <c r="M22">
-        <v>0.8932164378556096</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8959923299177524</v>
+      </c>
+      <c r="N22">
+        <v>0.9596982256342402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9260760596387212</v>
+        <v>0.9295725003053483</v>
       </c>
       <c r="D23">
-        <v>0.9603145131894308</v>
+        <v>0.9631261738095022</v>
       </c>
       <c r="E23">
-        <v>0.8830011280957237</v>
+        <v>0.8844020767994618</v>
       </c>
       <c r="F23">
-        <v>0.8823162069517461</v>
+        <v>0.8851101334769247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.015255904253394</v>
+        <v>1.016818815782879</v>
       </c>
       <c r="J23">
-        <v>0.959690826218593</v>
+        <v>0.9630016388760732</v>
       </c>
       <c r="K23">
-        <v>0.9763832265621273</v>
+        <v>0.9791345822720717</v>
       </c>
       <c r="L23">
-        <v>0.9009333143631257</v>
+        <v>0.9022965502146569</v>
       </c>
       <c r="M23">
-        <v>0.9002668902661098</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9029856080805092</v>
+      </c>
+      <c r="N23">
+        <v>0.9643692116611091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9468237248871535</v>
+        <v>0.950194625166776</v>
       </c>
       <c r="D24">
-        <v>0.9764412310644814</v>
+        <v>0.9791645881119559</v>
       </c>
       <c r="E24">
-        <v>0.905786014254446</v>
+        <v>0.9070433370022468</v>
       </c>
       <c r="F24">
-        <v>0.90932564193804</v>
+        <v>0.9119344012196532</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023429252065741</v>
+        <v>1.024947057454082</v>
       </c>
       <c r="J24">
-        <v>0.976534422053892</v>
+        <v>0.9797545098321973</v>
       </c>
       <c r="K24">
-        <v>0.9908950939840523</v>
+        <v>0.9935677507500831</v>
       </c>
       <c r="L24">
-        <v>0.9216976759415594</v>
+        <v>0.9229264067295996</v>
       </c>
       <c r="M24">
-        <v>0.9251570806057617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9277072453120897</v>
+      </c>
+      <c r="N24">
+        <v>0.9811458736155719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9679179010250984</v>
+        <v>0.9711897323929519</v>
       </c>
       <c r="D25">
-        <v>0.9928774941429648</v>
+        <v>0.9955321613108989</v>
       </c>
       <c r="E25">
-        <v>0.9282334142217399</v>
+        <v>0.9293841133669151</v>
       </c>
       <c r="F25">
-        <v>0.9361040820269382</v>
+        <v>0.938572882442802</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031648089003171</v>
+        <v>1.033131659614547</v>
       </c>
       <c r="J25">
-        <v>0.993575386492707</v>
+        <v>0.9967271586259355</v>
       </c>
       <c r="K25">
-        <v>1.005587393340145</v>
+        <v>1.008200232936514</v>
       </c>
       <c r="L25">
-        <v>0.9420583175567725</v>
+        <v>0.9431873984332397</v>
       </c>
       <c r="M25">
-        <v>0.9497825015828697</v>
+        <v>0.9522060132646195</v>
+      </c>
+      <c r="N25">
+        <v>0.9981426255173876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.014242064455636</v>
+      </c>
+      <c r="D2">
+        <v>1.030766593800971</v>
+      </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>1.02326715997609</v>
+      </c>
+      <c r="F2">
+        <v>1.031361188385549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.052538024144551</v>
+      </c>
+      <c r="J2">
+        <v>1.036004984982229</v>
+      </c>
+      <c r="K2">
+        <v>1.041813316488473</v>
+      </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>1.034411590508632</v>
+      </c>
+      <c r="M2">
+        <v>1.042400240333026</v>
+      </c>
+      <c r="N2">
+        <v>1.037476230892336</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.018399946294829</v>
+      </c>
+      <c r="D3">
+        <v>1.033913293348434</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>1.027928175699774</v>
+      </c>
+      <c r="F3">
+        <v>1.036171814341605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.054047076069685</v>
+      </c>
+      <c r="J3">
+        <v>1.038401275571117</v>
+      </c>
+      <c r="K3">
+        <v>1.044129883914181</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>1.038215758398737</v>
+      </c>
+      <c r="M3">
+        <v>1.046361879336457</v>
+      </c>
+      <c r="N3">
+        <v>1.039875924488719</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.02103505448854</v>
+      </c>
+      <c r="D4">
+        <v>1.035909121522794</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>1.030890177272467</v>
+      </c>
+      <c r="F4">
+        <v>1.039226938172677</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.054992748210247</v>
+      </c>
+      <c r="J4">
+        <v>1.039915568795512</v>
+      </c>
+      <c r="K4">
+        <v>1.045592643137292</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>1.040629549177871</v>
+      </c>
+      <c r="M4">
+        <v>1.048873903328838</v>
+      </c>
+      <c r="N4">
+        <v>1.041392368183185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.022130049610771</v>
+      </c>
+      <c r="D5">
+        <v>1.036738805758539</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>1.032122964632123</v>
+      </c>
+      <c r="F5">
+        <v>1.040498013184526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.055383110563475</v>
+      </c>
+      <c r="J5">
+        <v>1.040543742093942</v>
+      </c>
+      <c r="K5">
+        <v>1.046199152787904</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.041633275825457</v>
+      </c>
+      <c r="M5">
+        <v>1.049918069802523</v>
+      </c>
+      <c r="N5">
+        <v>1.042021433559751</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.022313165629049</v>
+      </c>
+      <c r="D6">
+        <v>1.036877572445552</v>
+      </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>1.032329239385382</v>
+      </c>
+      <c r="F6">
+        <v>1.040710666717602</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.055448236850117</v>
+      </c>
+      <c r="J6">
+        <v>1.040648727440499</v>
+      </c>
+      <c r="K6">
+        <v>1.046300500468873</v>
+      </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>1.041801170432535</v>
+      </c>
+      <c r="M6">
+        <v>1.05009270469141</v>
+      </c>
+      <c r="N6">
+        <v>1.042126567997542</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.021049735612804</v>
+      </c>
+      <c r="D7">
+        <v>1.035920244221605</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>1.030906698083432</v>
+      </c>
+      <c r="F7">
+        <v>1.039243973940503</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.054997992313292</v>
+      </c>
+      <c r="J7">
+        <v>1.039923995305313</v>
+      </c>
+      <c r="K7">
+        <v>1.045600780185908</v>
+      </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>1.040643003847211</v>
+      </c>
+      <c r="M7">
+        <v>1.048887901701559</v>
+      </c>
+      <c r="N7">
+        <v>1.041400806659596</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.015658965706561</v>
+      </c>
+      <c r="D8">
+        <v>1.031838555493529</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>1.024853851114661</v>
+      </c>
+      <c r="F8">
+        <v>1.03299921736622</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.053054495892028</v>
+      </c>
+      <c r="J8">
+        <v>1.036822484463656</v>
+      </c>
+      <c r="K8">
+        <v>1.042603855385104</v>
+      </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>1.035707364883159</v>
+      </c>
+      <c r="M8">
+        <v>1.043750002658201</v>
+      </c>
+      <c r="N8">
+        <v>1.038294891316795</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.005715188831789</v>
+      </c>
+      <c r="D9">
+        <v>1.024323940258878</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>1.013751358737215</v>
+      </c>
+      <c r="F9">
+        <v>1.021529307232413</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.049385846527554</v>
+      </c>
+      <c r="J9">
+        <v>1.031067730792218</v>
+      </c>
+      <c r="K9">
+        <v>1.037034331246697</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>1.026625201126091</v>
+      </c>
+      <c r="M9">
+        <v>1.034282483231161</v>
+      </c>
+      <c r="N9">
+        <v>1.032531965235064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9987560804776899</v>
+      </c>
+      <c r="D10">
+        <v>1.019077512775538</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>1.006021750061535</v>
+      </c>
+      <c r="F10">
+        <v>1.013533561831684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.046763872008174</v>
+      </c>
+      <c r="J10">
+        <v>1.027019138638533</v>
+      </c>
+      <c r="K10">
+        <v>1.033110653224543</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>1.020283124517041</v>
+      </c>
+      <c r="M10">
+        <v>1.027662688617678</v>
+      </c>
+      <c r="N10">
+        <v>1.028477623616141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9956569506424029</v>
+      </c>
+      <c r="D11">
+        <v>1.016744769501295</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>1.002588630408219</v>
+      </c>
+      <c r="F11">
+        <v>1.009979804312731</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.045583783168369</v>
+      </c>
+      <c r="J11">
+        <v>1.025211528369418</v>
+      </c>
+      <c r="K11">
+        <v>1.031357665071406</v>
+      </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>1.017461893509622</v>
+      </c>
+      <c r="M11">
+        <v>1.024715938674326</v>
+      </c>
+      <c r="N11">
+        <v>1.026667446333109</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9944922166533178</v>
+      </c>
+      <c r="D12">
+        <v>1.0158686749447</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>1.001299707351424</v>
+      </c>
+      <c r="F12">
+        <v>1.008645225555595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.045138449838617</v>
+      </c>
+      <c r="J12">
+        <v>1.02453151886117</v>
+      </c>
+      <c r="K12">
+        <v>1.030698042746587</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>1.016402049309464</v>
+      </c>
+      <c r="M12">
+        <v>1.023608650026316</v>
+      </c>
+      <c r="N12">
+        <v>1.02598647113336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9947426821450623</v>
+      </c>
+      <c r="D13">
+        <v>1.016057042532325</v>
+      </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.001576819018829</v>
+      </c>
+      <c r="F13">
+        <v>1.008932169360997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.045234296492622</v>
+      </c>
+      <c r="J13">
+        <v>1.024677778114791</v>
+      </c>
+      <c r="K13">
+        <v>1.030839924137833</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>1.016629939283239</v>
+      </c>
+      <c r="M13">
+        <v>1.023846754658668</v>
+      </c>
+      <c r="N13">
+        <v>1.026132938091898</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9955609545391051</v>
+      </c>
+      <c r="D14">
+        <v>1.01667254996516</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>1.00248237192278</v>
+      </c>
+      <c r="F14">
+        <v>1.00986978936637</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.045547116125495</v>
+      </c>
+      <c r="J14">
+        <v>1.025155495991744</v>
+      </c>
+      <c r="K14">
+        <v>1.031303315794893</v>
+      </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>1.017374533316932</v>
+      </c>
+      <c r="M14">
+        <v>1.024624673640736</v>
+      </c>
+      <c r="N14">
+        <v>1.026611334383031</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9960632983407257</v>
+      </c>
+      <c r="D15">
+        <v>1.01705049721433</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>1.003038472453289</v>
+      </c>
+      <c r="F15">
+        <v>1.010445534401597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.045738919173566</v>
+      </c>
+      <c r="J15">
+        <v>1.025448684409128</v>
+      </c>
+      <c r="K15">
+        <v>1.031587690914171</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>1.017831703887554</v>
+      </c>
+      <c r="M15">
+        <v>1.025102267070102</v>
+      </c>
+      <c r="N15">
+        <v>1.026904939161597</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9989598941862511</v>
+      </c>
+      <c r="D16">
+        <v>1.019231006682735</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>1.006247715634816</v>
+      </c>
+      <c r="F16">
+        <v>1.013767417121855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.046841224886927</v>
+      </c>
+      <c r="J16">
+        <v>1.027137922094355</v>
+      </c>
+      <c r="K16">
+        <v>1.03322582433156</v>
+      </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.020468725496974</v>
+      </c>
+      <c r="M16">
+        <v>1.027856506422111</v>
+      </c>
+      <c r="N16">
+        <v>1.028596575758095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.000753411302917</v>
+      </c>
+      <c r="D17">
+        <v>1.020582145176832</v>
+      </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>1.00823720016187</v>
+      </c>
+      <c r="F17">
+        <v>1.015826088560845</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.047520503569055</v>
+      </c>
+      <c r="J17">
+        <v>1.028182667781728</v>
+      </c>
+      <c r="K17">
+        <v>1.034238668741106</v>
+      </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.022102326616619</v>
+      </c>
+      <c r="M17">
+        <v>1.029562204880656</v>
+      </c>
+      <c r="N17">
+        <v>1.029642805104178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.001791311071544</v>
+      </c>
+      <c r="D18">
+        <v>1.021364386797126</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>1.009389375344416</v>
+      </c>
+      <c r="F18">
+        <v>1.01701810082617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.047912416283601</v>
+      </c>
+      <c r="J18">
+        <v>1.028786815224918</v>
+      </c>
+      <c r="K18">
+        <v>1.034824258899584</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.023047980520636</v>
+      </c>
+      <c r="M18">
+        <v>1.0305494060644</v>
+      </c>
+      <c r="N18">
+        <v>1.030247810506034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.002143832574497</v>
+      </c>
+      <c r="D19">
+        <v>1.021630130946512</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>1.009780859105751</v>
+      </c>
+      <c r="F19">
+        <v>1.01742308106306</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.048045327142726</v>
+      </c>
+      <c r="J19">
+        <v>1.028991937289706</v>
+      </c>
+      <c r="K19">
+        <v>1.035023061399864</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.023369221720821</v>
+      </c>
+      <c r="M19">
+        <v>1.030884728888065</v>
+      </c>
+      <c r="N19">
+        <v>1.030453223867682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.000561839830953</v>
+      </c>
+      <c r="D20">
+        <v>1.02043778949049</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>1.008024606780688</v>
+      </c>
+      <c r="F20">
+        <v>1.015606125946914</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.0474480699696</v>
+      </c>
+      <c r="J20">
+        <v>1.028071120661908</v>
+      </c>
+      <c r="K20">
+        <v>1.034130539009623</v>
+      </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.021927805646174</v>
+      </c>
+      <c r="M20">
+        <v>1.029380001084416</v>
+      </c>
+      <c r="N20">
+        <v>1.029531099574653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9953203743501373</v>
+      </c>
+      <c r="D21">
+        <v>1.01649156736564</v>
+      </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.002216094044957</v>
+      </c>
+      <c r="F21">
+        <v>1.009594092152232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.045455193934623</v>
+      </c>
+      <c r="J21">
+        <v>1.025015060156149</v>
+      </c>
+      <c r="K21">
+        <v>1.031167095815004</v>
+      </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.017155603125291</v>
+      </c>
+      <c r="M21">
+        <v>1.024395953001484</v>
+      </c>
+      <c r="N21">
+        <v>1.026470699112441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9919459144942753</v>
+      </c>
+      <c r="D22">
+        <v>1.013954578996197</v>
+      </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9984843120541222</v>
+      </c>
+      <c r="F22">
+        <v>1.005729438193335</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.044161569669823</v>
+      </c>
+      <c r="J22">
+        <v>1.023043725398397</v>
+      </c>
+      <c r="K22">
+        <v>1.02925457070868</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.014085854935188</v>
+      </c>
+      <c r="M22">
+        <v>1.021188241888089</v>
+      </c>
+      <c r="N22">
+        <v>1.024496564833218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9937425055759951</v>
+      </c>
+      <c r="D23">
+        <v>1.015304934048221</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>1.000470429176973</v>
+      </c>
+      <c r="F23">
+        <v>1.007786470802434</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.044851290756561</v>
+      </c>
+      <c r="J23">
+        <v>1.024093630890073</v>
+      </c>
+      <c r="K23">
+        <v>1.030273238995882</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.01571997696565</v>
+      </c>
+      <c r="M23">
+        <v>1.022895963143517</v>
+      </c>
+      <c r="N23">
+        <v>1.025547961311119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.00064842811105</v>
+      </c>
+      <c r="D24">
+        <v>1.020503035671796</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>1.008120694040946</v>
+      </c>
+      <c r="F24">
+        <v>1.015705544645952</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.047480812860824</v>
+      </c>
+      <c r="J24">
+        <v>1.028121540153478</v>
+      </c>
+      <c r="K24">
+        <v>1.034179414176722</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.022006686358244</v>
+      </c>
+      <c r="M24">
+        <v>1.02946235489587</v>
+      </c>
+      <c r="N24">
+        <v>1.029581590667685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.008341648334574</v>
+      </c>
+      <c r="D25">
+        <v>1.026306816878438</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>1.016676764217084</v>
+      </c>
+      <c r="F25">
+        <v>1.024553315921017</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.050364396764706</v>
+      </c>
+      <c r="J25">
+        <v>1.03259150730554</v>
+      </c>
+      <c r="K25">
+        <v>1.0385100316933</v>
+      </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>1.02902159565647</v>
+      </c>
+      <c r="M25">
+        <v>1.036782065672193</v>
+      </c>
+      <c r="N25">
+        <v>1.034057905685815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014242064455636</v>
+        <v>1.035893676681444</v>
       </c>
       <c r="D2">
-        <v>1.030766593800971</v>
+        <v>1.040614110272484</v>
       </c>
       <c r="E2">
-        <v>1.02326715997609</v>
+        <v>1.055220103135679</v>
       </c>
       <c r="F2">
-        <v>1.031361188385549</v>
+        <v>1.061537761288126</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052538024144551</v>
+        <v>1.041648635642988</v>
       </c>
       <c r="J2">
-        <v>1.036004984982229</v>
+        <v>1.041004963729284</v>
       </c>
       <c r="K2">
-        <v>1.041813316488473</v>
+        <v>1.043395959668502</v>
       </c>
       <c r="L2">
-        <v>1.034411590508632</v>
+        <v>1.057961160651572</v>
       </c>
       <c r="M2">
-        <v>1.042400240333026</v>
+        <v>1.064261551352442</v>
       </c>
       <c r="N2">
-        <v>1.037476230892336</v>
+        <v>1.042483310182717</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018399946294829</v>
+        <v>1.03675138930629</v>
       </c>
       <c r="D3">
-        <v>1.033913293348434</v>
+        <v>1.041276423105893</v>
       </c>
       <c r="E3">
-        <v>1.027928175699774</v>
+        <v>1.056290218144739</v>
       </c>
       <c r="F3">
-        <v>1.036171814341605</v>
+        <v>1.062629952113701</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054047076069685</v>
+        <v>1.041896282326701</v>
       </c>
       <c r="J3">
-        <v>1.038401275571117</v>
+        <v>1.041506877123633</v>
       </c>
       <c r="K3">
-        <v>1.044129883914181</v>
+        <v>1.04386912158745</v>
       </c>
       <c r="L3">
-        <v>1.038215758398737</v>
+        <v>1.058844018735362</v>
       </c>
       <c r="M3">
-        <v>1.046361879336457</v>
+        <v>1.065167683409268</v>
       </c>
       <c r="N3">
-        <v>1.039875924488719</v>
+        <v>1.042985936351657</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.02103505448854</v>
+        <v>1.037306567032181</v>
       </c>
       <c r="D4">
-        <v>1.035909121522794</v>
+        <v>1.041705044864208</v>
       </c>
       <c r="E4">
-        <v>1.030890177272467</v>
+        <v>1.056983750758079</v>
       </c>
       <c r="F4">
-        <v>1.039226938172677</v>
+        <v>1.063337593140697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054992748210247</v>
+        <v>1.042055275535106</v>
       </c>
       <c r="J4">
-        <v>1.039915568795512</v>
+        <v>1.041831174320949</v>
       </c>
       <c r="K4">
-        <v>1.045592643137292</v>
+        <v>1.04417466718927</v>
       </c>
       <c r="L4">
-        <v>1.040629549177871</v>
+        <v>1.059415782791319</v>
       </c>
       <c r="M4">
-        <v>1.048873903328838</v>
+        <v>1.065754334490204</v>
       </c>
       <c r="N4">
-        <v>1.041392368183185</v>
+        <v>1.04331069408819</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022130049610771</v>
+        <v>1.037540005795809</v>
       </c>
       <c r="D5">
-        <v>1.036738805758539</v>
+        <v>1.041885250708178</v>
       </c>
       <c r="E5">
-        <v>1.032122964632123</v>
+        <v>1.057275573749985</v>
       </c>
       <c r="F5">
-        <v>1.040498013184526</v>
+        <v>1.063635305090017</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055383110563475</v>
+        <v>1.042121816256576</v>
       </c>
       <c r="J5">
-        <v>1.040543742093942</v>
+        <v>1.041967394415126</v>
       </c>
       <c r="K5">
-        <v>1.046199152787904</v>
+        <v>1.044302968750944</v>
       </c>
       <c r="L5">
-        <v>1.041633275825457</v>
+        <v>1.059656270506427</v>
       </c>
       <c r="M5">
-        <v>1.049918069802523</v>
+        <v>1.066001039255185</v>
       </c>
       <c r="N5">
-        <v>1.042021433559751</v>
+        <v>1.043447107630527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.022313165629049</v>
+        <v>1.037579203624648</v>
       </c>
       <c r="D6">
-        <v>1.036877572445552</v>
+        <v>1.041915508800035</v>
       </c>
       <c r="E6">
-        <v>1.032329239385382</v>
+        <v>1.057324587452258</v>
       </c>
       <c r="F6">
-        <v>1.040710666717602</v>
+        <v>1.063685305096704</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055448236850117</v>
+        <v>1.042132971125861</v>
       </c>
       <c r="J6">
-        <v>1.040648727440499</v>
+        <v>1.041990259631148</v>
       </c>
       <c r="K6">
-        <v>1.046300500468873</v>
+        <v>1.0443245023352</v>
       </c>
       <c r="L6">
-        <v>1.041801170432535</v>
+        <v>1.059696656360478</v>
       </c>
       <c r="M6">
-        <v>1.05009270469141</v>
+        <v>1.066042466545715</v>
       </c>
       <c r="N6">
-        <v>1.042126567997542</v>
+        <v>1.043470005317777</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021049735612804</v>
+        <v>1.037309686088542</v>
       </c>
       <c r="D7">
-        <v>1.035920244221605</v>
+        <v>1.04170745273314</v>
       </c>
       <c r="E7">
-        <v>1.030906698083432</v>
+        <v>1.056987649082978</v>
       </c>
       <c r="F7">
-        <v>1.039243973940503</v>
+        <v>1.063341570320099</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054997992313292</v>
+        <v>1.042056165835106</v>
       </c>
       <c r="J7">
-        <v>1.039923995305313</v>
+        <v>1.041832994951332</v>
       </c>
       <c r="K7">
-        <v>1.045600780185908</v>
+        <v>1.044176382150856</v>
       </c>
       <c r="L7">
-        <v>1.040643003847211</v>
+        <v>1.059418995736604</v>
       </c>
       <c r="M7">
-        <v>1.048887901701559</v>
+        <v>1.065757630671017</v>
       </c>
       <c r="N7">
-        <v>1.041400806659596</v>
+        <v>1.043312517304078</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015658965706561</v>
+        <v>1.036183506673539</v>
       </c>
       <c r="D8">
-        <v>1.031838555493529</v>
+        <v>1.040837928532484</v>
       </c>
       <c r="E8">
-        <v>1.024853851114661</v>
+        <v>1.055581526048281</v>
       </c>
       <c r="F8">
-        <v>1.03299921736622</v>
+        <v>1.061906681257882</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053054495892028</v>
+        <v>1.04173258762162</v>
       </c>
       <c r="J8">
-        <v>1.036822484463656</v>
+        <v>1.041174685388179</v>
       </c>
       <c r="K8">
-        <v>1.042603855385104</v>
+        <v>1.043555995131528</v>
       </c>
       <c r="L8">
-        <v>1.035707364883159</v>
+        <v>1.058259423645738</v>
       </c>
       <c r="M8">
-        <v>1.043750002658201</v>
+        <v>1.064567715619206</v>
       </c>
       <c r="N8">
-        <v>1.038294891316795</v>
+        <v>1.042653272865836</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005715188831789</v>
+        <v>1.034200464816581</v>
       </c>
       <c r="D9">
-        <v>1.024323940258878</v>
+        <v>1.039306243540477</v>
       </c>
       <c r="E9">
-        <v>1.013751358737215</v>
+        <v>1.053112185626694</v>
       </c>
       <c r="F9">
-        <v>1.021529307232413</v>
+        <v>1.059385305089861</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049385846527554</v>
+        <v>1.041152848176741</v>
       </c>
       <c r="J9">
-        <v>1.031067730792218</v>
+        <v>1.040011066301866</v>
       </c>
       <c r="K9">
-        <v>1.037034331246697</v>
+        <v>1.042458073514129</v>
       </c>
       <c r="L9">
-        <v>1.026625201126091</v>
+        <v>1.056219933447823</v>
       </c>
       <c r="M9">
-        <v>1.034282483231161</v>
+        <v>1.062473437769301</v>
       </c>
       <c r="N9">
-        <v>1.032531965235064</v>
+        <v>1.041488001306952</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9987560804776899</v>
+        <v>1.032879463659069</v>
       </c>
       <c r="D10">
-        <v>1.019077512775538</v>
+        <v>1.038285555323419</v>
       </c>
       <c r="E10">
-        <v>1.006021750061535</v>
+        <v>1.051471662627645</v>
       </c>
       <c r="F10">
-        <v>1.013533561831684</v>
+        <v>1.057709189688787</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046763872008174</v>
+        <v>1.040759966638777</v>
       </c>
       <c r="J10">
-        <v>1.027019138638533</v>
+        <v>1.039232956369811</v>
       </c>
       <c r="K10">
-        <v>1.033110653224543</v>
+        <v>1.0417230077041</v>
       </c>
       <c r="L10">
-        <v>1.020283124517041</v>
+        <v>1.054862878497533</v>
       </c>
       <c r="M10">
-        <v>1.027662688617678</v>
+        <v>1.061078975777589</v>
       </c>
       <c r="N10">
-        <v>1.028477623616141</v>
+        <v>1.040708786369543</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9956569506424029</v>
+        <v>1.032307712458052</v>
       </c>
       <c r="D11">
-        <v>1.016744769501295</v>
+        <v>1.037843705981529</v>
       </c>
       <c r="E11">
-        <v>1.002588630408219</v>
+        <v>1.050762658290792</v>
       </c>
       <c r="F11">
-        <v>1.009979804312731</v>
+        <v>1.056984560194035</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045583783168369</v>
+        <v>1.040588336398212</v>
       </c>
       <c r="J11">
-        <v>1.025211528369418</v>
+        <v>1.038895476261042</v>
       </c>
       <c r="K11">
-        <v>1.031357665071406</v>
+        <v>1.041403988042027</v>
       </c>
       <c r="L11">
-        <v>1.017461893509622</v>
+        <v>1.05427588334715</v>
       </c>
       <c r="M11">
-        <v>1.024715938674326</v>
+        <v>1.060475574858138</v>
       </c>
       <c r="N11">
-        <v>1.026667446333109</v>
+        <v>1.04037082700031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9944922166533178</v>
+        <v>1.032095377343644</v>
       </c>
       <c r="D12">
-        <v>1.0158686749447</v>
+        <v>1.037679602121863</v>
       </c>
       <c r="E12">
-        <v>1.001299707351424</v>
+        <v>1.050499506303554</v>
       </c>
       <c r="F12">
-        <v>1.008645225555595</v>
+        <v>1.056715572312763</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045138449838617</v>
+        <v>1.040524358965857</v>
       </c>
       <c r="J12">
-        <v>1.02453151886117</v>
+        <v>1.038770038814777</v>
       </c>
       <c r="K12">
-        <v>1.030698042746587</v>
+        <v>1.041285380955425</v>
       </c>
       <c r="L12">
-        <v>1.016402049309464</v>
+        <v>1.054057940629202</v>
       </c>
       <c r="M12">
-        <v>1.023608650026316</v>
+        <v>1.060251507099037</v>
       </c>
       <c r="N12">
-        <v>1.02598647113336</v>
+        <v>1.040245211418483</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9947426821450623</v>
+        <v>1.032140922176963</v>
       </c>
       <c r="D13">
-        <v>1.016057042532325</v>
+        <v>1.037714802091243</v>
       </c>
       <c r="E13">
-        <v>1.001576819018829</v>
+        <v>1.050555944067575</v>
       </c>
       <c r="F13">
-        <v>1.008932169360997</v>
+        <v>1.056773263343824</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045234296492622</v>
+        <v>1.040538092575132</v>
       </c>
       <c r="J13">
-        <v>1.024677778114791</v>
+        <v>1.038796949284066</v>
       </c>
       <c r="K13">
-        <v>1.030839924137833</v>
+        <v>1.041310827495369</v>
       </c>
       <c r="L13">
-        <v>1.016629939283239</v>
+        <v>1.054104685846962</v>
       </c>
       <c r="M13">
-        <v>1.023846754658668</v>
+        <v>1.060299567569822</v>
       </c>
       <c r="N13">
-        <v>1.026132938091898</v>
+        <v>1.040272160103725</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9955609545391051</v>
+        <v>1.032290159975053</v>
       </c>
       <c r="D14">
-        <v>1.01667254996516</v>
+        <v>1.037830140717013</v>
       </c>
       <c r="E14">
-        <v>1.00248237192278</v>
+        <v>1.050740901905074</v>
       </c>
       <c r="F14">
-        <v>1.00986978936637</v>
+        <v>1.056962322064307</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045547116125495</v>
+        <v>1.040583052617454</v>
       </c>
       <c r="J14">
-        <v>1.025155495991744</v>
+        <v>1.03888510923685</v>
       </c>
       <c r="K14">
-        <v>1.031303315794893</v>
+        <v>1.041394186161245</v>
       </c>
       <c r="L14">
-        <v>1.017374533316932</v>
+        <v>1.054257866225628</v>
       </c>
       <c r="M14">
-        <v>1.024624673640736</v>
+        <v>1.060457052074961</v>
       </c>
       <c r="N14">
-        <v>1.026611334383031</v>
+        <v>1.040360445253754</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9960632983407257</v>
+        <v>1.032382115471936</v>
       </c>
       <c r="D15">
-        <v>1.01705049721433</v>
+        <v>1.037901207163061</v>
       </c>
       <c r="E15">
-        <v>1.003038472453289</v>
+        <v>1.050854887553407</v>
       </c>
       <c r="F15">
-        <v>1.010445534401597</v>
+        <v>1.057078830161178</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045738919173566</v>
+        <v>1.040610724009863</v>
       </c>
       <c r="J15">
-        <v>1.025448684409128</v>
+        <v>1.038939416611699</v>
       </c>
       <c r="K15">
-        <v>1.031587690914171</v>
+        <v>1.041445531772276</v>
       </c>
       <c r="L15">
-        <v>1.017831703887554</v>
+        <v>1.054352258105596</v>
       </c>
       <c r="M15">
-        <v>1.025102267070102</v>
+        <v>1.060554091736403</v>
       </c>
       <c r="N15">
-        <v>1.026904939161597</v>
+        <v>1.040414829751304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9989598941862511</v>
+        <v>1.032917414279479</v>
       </c>
       <c r="D16">
-        <v>1.019231006682735</v>
+        <v>1.038314881953204</v>
       </c>
       <c r="E16">
-        <v>1.006247715634816</v>
+        <v>1.051518745460312</v>
       </c>
       <c r="F16">
-        <v>1.013767417121855</v>
+        <v>1.057757305019473</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046841224886927</v>
+        <v>1.040771325405279</v>
       </c>
       <c r="J16">
-        <v>1.027137922094355</v>
+        <v>1.039255342225119</v>
       </c>
       <c r="K16">
-        <v>1.03322582433156</v>
+        <v>1.041744164656591</v>
       </c>
       <c r="L16">
-        <v>1.020468725496974</v>
+        <v>1.054901848506397</v>
       </c>
       <c r="M16">
-        <v>1.027856506422111</v>
+        <v>1.061119030202296</v>
       </c>
       <c r="N16">
-        <v>1.028596575758095</v>
+        <v>1.040731204015332</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000753411302917</v>
+        <v>1.033253261007603</v>
       </c>
       <c r="D17">
-        <v>1.020582145176832</v>
+        <v>1.038574401048393</v>
       </c>
       <c r="E17">
-        <v>1.00823720016187</v>
+        <v>1.051935528579023</v>
       </c>
       <c r="F17">
-        <v>1.015826088560845</v>
+        <v>1.058183199862967</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047520503569055</v>
+        <v>1.040871662538848</v>
       </c>
       <c r="J17">
-        <v>1.028182667781728</v>
+        <v>1.039453366448367</v>
       </c>
       <c r="K17">
-        <v>1.034238668741106</v>
+        <v>1.041931294011228</v>
       </c>
       <c r="L17">
-        <v>1.022102326616619</v>
+        <v>1.055246757998029</v>
       </c>
       <c r="M17">
-        <v>1.029562204880656</v>
+        <v>1.061473511427402</v>
       </c>
       <c r="N17">
-        <v>1.029642805104178</v>
+        <v>1.040929509455691</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001791311071544</v>
+        <v>1.033449178872685</v>
       </c>
       <c r="D18">
-        <v>1.021364386797126</v>
+        <v>1.038725785190963</v>
       </c>
       <c r="E18">
-        <v>1.009389375344416</v>
+        <v>1.052178761624925</v>
       </c>
       <c r="F18">
-        <v>1.01701810082617</v>
+        <v>1.058431727029294</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047912416283601</v>
+        <v>1.040930041768007</v>
       </c>
       <c r="J18">
-        <v>1.028786815224918</v>
+        <v>1.039568817179286</v>
       </c>
       <c r="K18">
-        <v>1.034824258899584</v>
+        <v>1.042040372776668</v>
       </c>
       <c r="L18">
-        <v>1.023047980520636</v>
+        <v>1.055447997522408</v>
       </c>
       <c r="M18">
-        <v>1.0305494060644</v>
+        <v>1.06168031388109</v>
       </c>
       <c r="N18">
-        <v>1.030247810506034</v>
+        <v>1.04104512413989</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002143832574497</v>
+        <v>1.03351598586687</v>
       </c>
       <c r="D19">
-        <v>1.021630130946512</v>
+        <v>1.038777405104603</v>
       </c>
       <c r="E19">
-        <v>1.009780859105751</v>
+        <v>1.052261719927703</v>
       </c>
       <c r="F19">
-        <v>1.01742308106306</v>
+        <v>1.058516486995675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048045327142726</v>
+        <v>1.040949922843114</v>
       </c>
       <c r="J19">
-        <v>1.028991937289706</v>
+        <v>1.039608173804002</v>
       </c>
       <c r="K19">
-        <v>1.035023061399864</v>
+        <v>1.042077553811112</v>
       </c>
       <c r="L19">
-        <v>1.023369221720821</v>
+        <v>1.055516625103457</v>
       </c>
       <c r="M19">
-        <v>1.030884728888065</v>
+        <v>1.061750834865298</v>
       </c>
       <c r="N19">
-        <v>1.030453223867682</v>
+        <v>1.041084536655528</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000561839830953</v>
+        <v>1.033217225326633</v>
       </c>
       <c r="D20">
-        <v>1.02043778949049</v>
+        <v>1.038546555953524</v>
       </c>
       <c r="E20">
-        <v>1.008024606780688</v>
+        <v>1.051890798192258</v>
       </c>
       <c r="F20">
-        <v>1.015606125946914</v>
+        <v>1.058137494004198</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0474480699696</v>
+        <v>1.040860912382977</v>
       </c>
       <c r="J20">
-        <v>1.028071120661908</v>
+        <v>1.039432125845669</v>
       </c>
       <c r="K20">
-        <v>1.034130539009623</v>
+        <v>1.04191122410066</v>
       </c>
       <c r="L20">
-        <v>1.021927805646174</v>
+        <v>1.055209746300029</v>
       </c>
       <c r="M20">
-        <v>1.029380001084416</v>
+        <v>1.061435474851516</v>
       </c>
       <c r="N20">
-        <v>1.029531099574653</v>
+        <v>1.040908238688901</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9953203743501373</v>
+        <v>1.032246212085536</v>
       </c>
       <c r="D21">
-        <v>1.01649156736564</v>
+        <v>1.037796175840766</v>
       </c>
       <c r="E21">
-        <v>1.002216094044957</v>
+        <v>1.050686430801969</v>
       </c>
       <c r="F21">
-        <v>1.009594092152232</v>
+        <v>1.056906644236751</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045455193934623</v>
+        <v>1.040569819248824</v>
       </c>
       <c r="J21">
-        <v>1.025015060156149</v>
+        <v>1.038859150593506</v>
       </c>
       <c r="K21">
-        <v>1.031167095815004</v>
+        <v>1.041369642113018</v>
       </c>
       <c r="L21">
-        <v>1.017155603125291</v>
+        <v>1.054212755839391</v>
       </c>
       <c r="M21">
-        <v>1.024395953001484</v>
+        <v>1.060410675091587</v>
       </c>
       <c r="N21">
-        <v>1.026470699112441</v>
+        <v>1.040334449746159</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9919459144942753</v>
+        <v>1.031635922162055</v>
       </c>
       <c r="D22">
-        <v>1.013954578996197</v>
+        <v>1.037324490690954</v>
       </c>
       <c r="E22">
-        <v>0.9984843120541222</v>
+        <v>1.049930376564757</v>
       </c>
       <c r="F22">
-        <v>1.005729438193335</v>
+        <v>1.05613375427469</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044161569669823</v>
+        <v>1.040385488293526</v>
       </c>
       <c r="J22">
-        <v>1.023043725398397</v>
+        <v>1.0384984225161</v>
       </c>
       <c r="K22">
-        <v>1.02925457070868</v>
+        <v>1.041028497940031</v>
       </c>
       <c r="L22">
-        <v>1.014085854935188</v>
+        <v>1.053586449088903</v>
       </c>
       <c r="M22">
-        <v>1.021188241888089</v>
+        <v>1.059766703011515</v>
       </c>
       <c r="N22">
-        <v>1.024496564833218</v>
+        <v>1.039973209393506</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9937425055759951</v>
+        <v>1.031959426761049</v>
       </c>
       <c r="D23">
-        <v>1.015304934048221</v>
+        <v>1.037574529177496</v>
       </c>
       <c r="E23">
-        <v>1.000470429176973</v>
+        <v>1.050331063255422</v>
       </c>
       <c r="F23">
-        <v>1.007786470802434</v>
+        <v>1.056543383440691</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044851290756561</v>
+        <v>1.040483329534591</v>
       </c>
       <c r="J23">
-        <v>1.024093630890073</v>
+        <v>1.038689696117693</v>
       </c>
       <c r="K23">
-        <v>1.030273238995882</v>
+        <v>1.041209404347548</v>
       </c>
       <c r="L23">
-        <v>1.01571997696565</v>
+        <v>1.053918414731682</v>
       </c>
       <c r="M23">
-        <v>1.022895963143517</v>
+        <v>1.060108050463342</v>
       </c>
       <c r="N23">
-        <v>1.025547961311119</v>
+        <v>1.040164754625554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00064842811105</v>
+        <v>1.033233508225176</v>
       </c>
       <c r="D24">
-        <v>1.020503035671796</v>
+        <v>1.038559137919325</v>
       </c>
       <c r="E24">
-        <v>1.008120694040946</v>
+        <v>1.051911009525379</v>
       </c>
       <c r="F24">
-        <v>1.015705544645952</v>
+        <v>1.058158146174763</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047480812860824</v>
+        <v>1.040865770365976</v>
       </c>
       <c r="J24">
-        <v>1.028121540153478</v>
+        <v>1.039441723724949</v>
       </c>
       <c r="K24">
-        <v>1.034179414176722</v>
+        <v>1.04192029304763</v>
       </c>
       <c r="L24">
-        <v>1.022006686358244</v>
+        <v>1.055226470108864</v>
       </c>
       <c r="M24">
-        <v>1.02946235489587</v>
+        <v>1.061452661820667</v>
       </c>
       <c r="N24">
-        <v>1.029581590667685</v>
+        <v>1.040917850198271</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008341648334574</v>
+        <v>1.034712952475888</v>
       </c>
       <c r="D25">
-        <v>1.026306816878438</v>
+        <v>1.03970215000097</v>
       </c>
       <c r="E25">
-        <v>1.016676764217084</v>
+        <v>1.053749566715933</v>
       </c>
       <c r="F25">
-        <v>1.024553315921017</v>
+        <v>1.060036297874178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050364396764706</v>
+        <v>1.041303853279963</v>
       </c>
       <c r="J25">
-        <v>1.03259150730554</v>
+        <v>1.040312310197594</v>
       </c>
       <c r="K25">
-        <v>1.0385100316933</v>
+        <v>1.042742466222921</v>
       </c>
       <c r="L25">
-        <v>1.02902159565647</v>
+        <v>1.056746733888052</v>
       </c>
       <c r="M25">
-        <v>1.036782065672193</v>
+        <v>1.063014557958875</v>
       </c>
       <c r="N25">
-        <v>1.034057905685815</v>
+        <v>1.041789673003564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035893676681444</v>
+        <v>1.014242064455636</v>
       </c>
       <c r="D2">
-        <v>1.040614110272484</v>
+        <v>1.03076659380097</v>
       </c>
       <c r="E2">
-        <v>1.055220103135679</v>
+        <v>1.023267159976089</v>
       </c>
       <c r="F2">
-        <v>1.061537761288126</v>
+        <v>1.031361188385549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041648635642988</v>
+        <v>1.052538024144551</v>
       </c>
       <c r="J2">
-        <v>1.041004963729284</v>
+        <v>1.036004984982228</v>
       </c>
       <c r="K2">
-        <v>1.043395959668502</v>
+        <v>1.041813316488473</v>
       </c>
       <c r="L2">
-        <v>1.057961160651572</v>
+        <v>1.034411590508632</v>
       </c>
       <c r="M2">
-        <v>1.064261551352442</v>
+        <v>1.042400240333026</v>
       </c>
       <c r="N2">
-        <v>1.042483310182717</v>
+        <v>1.037476230892335</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03675138930629</v>
+        <v>1.018399946294829</v>
       </c>
       <c r="D3">
-        <v>1.041276423105893</v>
+        <v>1.033913293348435</v>
       </c>
       <c r="E3">
-        <v>1.056290218144739</v>
+        <v>1.027928175699775</v>
       </c>
       <c r="F3">
-        <v>1.062629952113701</v>
+        <v>1.036171814341606</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041896282326701</v>
+        <v>1.054047076069685</v>
       </c>
       <c r="J3">
-        <v>1.041506877123633</v>
+        <v>1.038401275571117</v>
       </c>
       <c r="K3">
-        <v>1.04386912158745</v>
+        <v>1.044129883914181</v>
       </c>
       <c r="L3">
-        <v>1.058844018735362</v>
+        <v>1.038215758398738</v>
       </c>
       <c r="M3">
-        <v>1.065167683409268</v>
+        <v>1.046361879336458</v>
       </c>
       <c r="N3">
-        <v>1.042985936351657</v>
+        <v>1.039875924488719</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037306567032181</v>
+        <v>1.021035054488541</v>
       </c>
       <c r="D4">
-        <v>1.041705044864208</v>
+        <v>1.035909121522794</v>
       </c>
       <c r="E4">
-        <v>1.056983750758079</v>
+        <v>1.030890177272467</v>
       </c>
       <c r="F4">
-        <v>1.063337593140697</v>
+        <v>1.039226938172677</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042055275535106</v>
+        <v>1.054992748210247</v>
       </c>
       <c r="J4">
-        <v>1.041831174320949</v>
+        <v>1.039915568795512</v>
       </c>
       <c r="K4">
-        <v>1.04417466718927</v>
+        <v>1.045592643137292</v>
       </c>
       <c r="L4">
-        <v>1.059415782791319</v>
+        <v>1.040629549177871</v>
       </c>
       <c r="M4">
-        <v>1.065754334490204</v>
+        <v>1.048873903328838</v>
       </c>
       <c r="N4">
-        <v>1.04331069408819</v>
+        <v>1.041392368183185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037540005795809</v>
+        <v>1.022130049610771</v>
       </c>
       <c r="D5">
-        <v>1.041885250708178</v>
+        <v>1.036738805758539</v>
       </c>
       <c r="E5">
-        <v>1.057275573749985</v>
+        <v>1.032122964632122</v>
       </c>
       <c r="F5">
-        <v>1.063635305090017</v>
+        <v>1.040498013184526</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042121816256576</v>
+        <v>1.055383110563475</v>
       </c>
       <c r="J5">
-        <v>1.041967394415126</v>
+        <v>1.040543742093942</v>
       </c>
       <c r="K5">
-        <v>1.044302968750944</v>
+        <v>1.046199152787903</v>
       </c>
       <c r="L5">
-        <v>1.059656270506427</v>
+        <v>1.041633275825457</v>
       </c>
       <c r="M5">
-        <v>1.066001039255185</v>
+        <v>1.049918069802523</v>
       </c>
       <c r="N5">
-        <v>1.043447107630527</v>
+        <v>1.04202143355975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037579203624648</v>
+        <v>1.022313165629048</v>
       </c>
       <c r="D6">
-        <v>1.041915508800035</v>
+        <v>1.036877572445551</v>
       </c>
       <c r="E6">
-        <v>1.057324587452258</v>
+        <v>1.032329239385382</v>
       </c>
       <c r="F6">
-        <v>1.063685305096704</v>
+        <v>1.040710666717602</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042132971125861</v>
+        <v>1.055448236850117</v>
       </c>
       <c r="J6">
-        <v>1.041990259631148</v>
+        <v>1.040648727440498</v>
       </c>
       <c r="K6">
-        <v>1.0443245023352</v>
+        <v>1.046300500468872</v>
       </c>
       <c r="L6">
-        <v>1.059696656360478</v>
+        <v>1.041801170432535</v>
       </c>
       <c r="M6">
-        <v>1.066042466545715</v>
+        <v>1.05009270469141</v>
       </c>
       <c r="N6">
-        <v>1.043470005317777</v>
+        <v>1.042126567997541</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037309686088542</v>
+        <v>1.021049735612804</v>
       </c>
       <c r="D7">
-        <v>1.04170745273314</v>
+        <v>1.035920244221605</v>
       </c>
       <c r="E7">
-        <v>1.056987649082978</v>
+        <v>1.030906698083432</v>
       </c>
       <c r="F7">
-        <v>1.063341570320099</v>
+        <v>1.039243973940503</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042056165835106</v>
+        <v>1.054997992313292</v>
       </c>
       <c r="J7">
-        <v>1.041832994951332</v>
+        <v>1.039923995305313</v>
       </c>
       <c r="K7">
-        <v>1.044176382150856</v>
+        <v>1.045600780185908</v>
       </c>
       <c r="L7">
-        <v>1.059418995736604</v>
+        <v>1.040643003847211</v>
       </c>
       <c r="M7">
-        <v>1.065757630671017</v>
+        <v>1.048887901701559</v>
       </c>
       <c r="N7">
-        <v>1.043312517304078</v>
+        <v>1.041400806659596</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036183506673539</v>
+        <v>1.015658965706561</v>
       </c>
       <c r="D8">
-        <v>1.040837928532484</v>
+        <v>1.031838555493529</v>
       </c>
       <c r="E8">
-        <v>1.055581526048281</v>
+        <v>1.024853851114661</v>
       </c>
       <c r="F8">
-        <v>1.061906681257882</v>
+        <v>1.032999217366221</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04173258762162</v>
+        <v>1.053054495892028</v>
       </c>
       <c r="J8">
-        <v>1.041174685388179</v>
+        <v>1.036822484463656</v>
       </c>
       <c r="K8">
-        <v>1.043555995131528</v>
+        <v>1.042603855385104</v>
       </c>
       <c r="L8">
-        <v>1.058259423645738</v>
+        <v>1.03570736488316</v>
       </c>
       <c r="M8">
-        <v>1.064567715619206</v>
+        <v>1.043750002658201</v>
       </c>
       <c r="N8">
-        <v>1.042653272865836</v>
+        <v>1.038294891316796</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034200464816581</v>
+        <v>1.005715188831789</v>
       </c>
       <c r="D9">
-        <v>1.039306243540477</v>
+        <v>1.024323940258878</v>
       </c>
       <c r="E9">
-        <v>1.053112185626694</v>
+        <v>1.013751358737215</v>
       </c>
       <c r="F9">
-        <v>1.059385305089861</v>
+        <v>1.021529307232412</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041152848176741</v>
+        <v>1.049385846527554</v>
       </c>
       <c r="J9">
-        <v>1.040011066301866</v>
+        <v>1.031067730792218</v>
       </c>
       <c r="K9">
-        <v>1.042458073514129</v>
+        <v>1.037034331246697</v>
       </c>
       <c r="L9">
-        <v>1.056219933447823</v>
+        <v>1.02662520112609</v>
       </c>
       <c r="M9">
-        <v>1.062473437769301</v>
+        <v>1.03428248323116</v>
       </c>
       <c r="N9">
-        <v>1.041488001306952</v>
+        <v>1.032531965235064</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032879463659069</v>
+        <v>0.9987560804776897</v>
       </c>
       <c r="D10">
-        <v>1.038285555323419</v>
+        <v>1.019077512775538</v>
       </c>
       <c r="E10">
-        <v>1.051471662627645</v>
+        <v>1.006021750061536</v>
       </c>
       <c r="F10">
-        <v>1.057709189688787</v>
+        <v>1.013533561831685</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040759966638777</v>
+        <v>1.046763872008174</v>
       </c>
       <c r="J10">
-        <v>1.039232956369811</v>
+        <v>1.027019138638533</v>
       </c>
       <c r="K10">
-        <v>1.0417230077041</v>
+        <v>1.033110653224543</v>
       </c>
       <c r="L10">
-        <v>1.054862878497533</v>
+        <v>1.020283124517041</v>
       </c>
       <c r="M10">
-        <v>1.061078975777589</v>
+        <v>1.027662688617679</v>
       </c>
       <c r="N10">
-        <v>1.040708786369543</v>
+        <v>1.028477623616141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032307712458052</v>
+        <v>0.9956569506424033</v>
       </c>
       <c r="D11">
-        <v>1.037843705981529</v>
+        <v>1.016744769501295</v>
       </c>
       <c r="E11">
-        <v>1.050762658290792</v>
+        <v>1.002588630408219</v>
       </c>
       <c r="F11">
-        <v>1.056984560194035</v>
+        <v>1.009979804312731</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040588336398212</v>
+        <v>1.045583783168369</v>
       </c>
       <c r="J11">
-        <v>1.038895476261042</v>
+        <v>1.025211528369419</v>
       </c>
       <c r="K11">
-        <v>1.041403988042027</v>
+        <v>1.031357665071407</v>
       </c>
       <c r="L11">
-        <v>1.05427588334715</v>
+        <v>1.017461893509622</v>
       </c>
       <c r="M11">
-        <v>1.060475574858138</v>
+        <v>1.024715938674326</v>
       </c>
       <c r="N11">
-        <v>1.04037082700031</v>
+        <v>1.026667446333109</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032095377343644</v>
+        <v>0.9944922166533172</v>
       </c>
       <c r="D12">
-        <v>1.037679602121863</v>
+        <v>1.015868674944699</v>
       </c>
       <c r="E12">
-        <v>1.050499506303554</v>
+        <v>1.001299707351424</v>
       </c>
       <c r="F12">
-        <v>1.056715572312763</v>
+        <v>1.008645225555595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040524358965857</v>
+        <v>1.045138449838617</v>
       </c>
       <c r="J12">
-        <v>1.038770038814777</v>
+        <v>1.024531518861169</v>
       </c>
       <c r="K12">
-        <v>1.041285380955425</v>
+        <v>1.030698042746587</v>
       </c>
       <c r="L12">
-        <v>1.054057940629202</v>
+        <v>1.016402049309465</v>
       </c>
       <c r="M12">
-        <v>1.060251507099037</v>
+        <v>1.023608650026316</v>
       </c>
       <c r="N12">
-        <v>1.040245211418483</v>
+        <v>1.02598647113336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032140922176963</v>
+        <v>0.9947426821450622</v>
       </c>
       <c r="D13">
-        <v>1.037714802091243</v>
+        <v>1.016057042532325</v>
       </c>
       <c r="E13">
-        <v>1.050555944067575</v>
+        <v>1.001576819018829</v>
       </c>
       <c r="F13">
-        <v>1.056773263343824</v>
+        <v>1.008932169360997</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040538092575132</v>
+        <v>1.045234296492622</v>
       </c>
       <c r="J13">
-        <v>1.038796949284066</v>
+        <v>1.024677778114791</v>
       </c>
       <c r="K13">
-        <v>1.041310827495369</v>
+        <v>1.030839924137833</v>
       </c>
       <c r="L13">
-        <v>1.054104685846962</v>
+        <v>1.016629939283239</v>
       </c>
       <c r="M13">
-        <v>1.060299567569822</v>
+        <v>1.023846754658668</v>
       </c>
       <c r="N13">
-        <v>1.040272160103725</v>
+        <v>1.026132938091898</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032290159975053</v>
+        <v>0.9955609545391039</v>
       </c>
       <c r="D14">
-        <v>1.037830140717013</v>
+        <v>1.016672549965159</v>
       </c>
       <c r="E14">
-        <v>1.050740901905074</v>
+        <v>1.00248237192278</v>
       </c>
       <c r="F14">
-        <v>1.056962322064307</v>
+        <v>1.00986978936637</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040583052617454</v>
+        <v>1.045547116125495</v>
       </c>
       <c r="J14">
-        <v>1.03888510923685</v>
+        <v>1.025155495991743</v>
       </c>
       <c r="K14">
-        <v>1.041394186161245</v>
+        <v>1.031303315794892</v>
       </c>
       <c r="L14">
-        <v>1.054257866225628</v>
+        <v>1.017374533316932</v>
       </c>
       <c r="M14">
-        <v>1.060457052074961</v>
+        <v>1.024624673640736</v>
       </c>
       <c r="N14">
-        <v>1.040360445253754</v>
+        <v>1.02661133438303</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032382115471936</v>
+        <v>0.9960632983407255</v>
       </c>
       <c r="D15">
-        <v>1.037901207163061</v>
+        <v>1.01705049721433</v>
       </c>
       <c r="E15">
-        <v>1.050854887553407</v>
+        <v>1.003038472453289</v>
       </c>
       <c r="F15">
-        <v>1.057078830161178</v>
+        <v>1.010445534401597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040610724009863</v>
+        <v>1.045738919173566</v>
       </c>
       <c r="J15">
-        <v>1.038939416611699</v>
+        <v>1.025448684409127</v>
       </c>
       <c r="K15">
-        <v>1.041445531772276</v>
+        <v>1.031587690914171</v>
       </c>
       <c r="L15">
-        <v>1.054352258105596</v>
+        <v>1.017831703887553</v>
       </c>
       <c r="M15">
-        <v>1.060554091736403</v>
+        <v>1.025102267070102</v>
       </c>
       <c r="N15">
-        <v>1.040414829751304</v>
+        <v>1.026904939161596</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032917414279479</v>
+        <v>0.9989598941862496</v>
       </c>
       <c r="D16">
-        <v>1.038314881953204</v>
+        <v>1.019231006682733</v>
       </c>
       <c r="E16">
-        <v>1.051518745460312</v>
+        <v>1.006247715634816</v>
       </c>
       <c r="F16">
-        <v>1.057757305019473</v>
+        <v>1.013767417121855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040771325405279</v>
+        <v>1.046841224886926</v>
       </c>
       <c r="J16">
-        <v>1.039255342225119</v>
+        <v>1.027137922094353</v>
       </c>
       <c r="K16">
-        <v>1.041744164656591</v>
+        <v>1.033225824331559</v>
       </c>
       <c r="L16">
-        <v>1.054901848506397</v>
+        <v>1.020468725496974</v>
       </c>
       <c r="M16">
-        <v>1.061119030202296</v>
+        <v>1.027856506422111</v>
       </c>
       <c r="N16">
-        <v>1.040731204015332</v>
+        <v>1.028596575758094</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033253261007603</v>
+        <v>1.000753411302918</v>
       </c>
       <c r="D17">
-        <v>1.038574401048393</v>
+        <v>1.020582145176833</v>
       </c>
       <c r="E17">
-        <v>1.051935528579023</v>
+        <v>1.008237200161871</v>
       </c>
       <c r="F17">
-        <v>1.058183199862967</v>
+        <v>1.015826088560846</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040871662538848</v>
+        <v>1.047520503569056</v>
       </c>
       <c r="J17">
-        <v>1.039453366448367</v>
+        <v>1.028182667781729</v>
       </c>
       <c r="K17">
-        <v>1.041931294011228</v>
+        <v>1.034238668741108</v>
       </c>
       <c r="L17">
-        <v>1.055246757998029</v>
+        <v>1.02210232661662</v>
       </c>
       <c r="M17">
-        <v>1.061473511427402</v>
+        <v>1.029562204880657</v>
       </c>
       <c r="N17">
-        <v>1.040929509455691</v>
+        <v>1.029642805104179</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033449178872685</v>
+        <v>1.001791311071543</v>
       </c>
       <c r="D18">
-        <v>1.038725785190963</v>
+        <v>1.021364386797126</v>
       </c>
       <c r="E18">
-        <v>1.052178761624925</v>
+        <v>1.009389375344415</v>
       </c>
       <c r="F18">
-        <v>1.058431727029294</v>
+        <v>1.017018100826169</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040930041768007</v>
+        <v>1.0479124162836</v>
       </c>
       <c r="J18">
-        <v>1.039568817179286</v>
+        <v>1.028786815224917</v>
       </c>
       <c r="K18">
-        <v>1.042040372776668</v>
+        <v>1.034824258899584</v>
       </c>
       <c r="L18">
-        <v>1.055447997522408</v>
+        <v>1.023047980520635</v>
       </c>
       <c r="M18">
-        <v>1.06168031388109</v>
+        <v>1.0305494060644</v>
       </c>
       <c r="N18">
-        <v>1.04104512413989</v>
+        <v>1.030247810506034</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03351598586687</v>
+        <v>1.002143832574497</v>
       </c>
       <c r="D19">
-        <v>1.038777405104603</v>
+        <v>1.021630130946512</v>
       </c>
       <c r="E19">
-        <v>1.052261719927703</v>
+        <v>1.009780859105751</v>
       </c>
       <c r="F19">
-        <v>1.058516486995675</v>
+        <v>1.01742308106306</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040949922843114</v>
+        <v>1.048045327142726</v>
       </c>
       <c r="J19">
-        <v>1.039608173804002</v>
+        <v>1.028991937289706</v>
       </c>
       <c r="K19">
-        <v>1.042077553811112</v>
+        <v>1.035023061399864</v>
       </c>
       <c r="L19">
-        <v>1.055516625103457</v>
+        <v>1.023369221720821</v>
       </c>
       <c r="M19">
-        <v>1.061750834865298</v>
+        <v>1.030884728888065</v>
       </c>
       <c r="N19">
-        <v>1.041084536655528</v>
+        <v>1.030453223867682</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033217225326633</v>
+        <v>1.000561839830954</v>
       </c>
       <c r="D20">
-        <v>1.038546555953524</v>
+        <v>1.020437789490491</v>
       </c>
       <c r="E20">
-        <v>1.051890798192258</v>
+        <v>1.008024606780689</v>
       </c>
       <c r="F20">
-        <v>1.058137494004198</v>
+        <v>1.015606125946914</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040860912382977</v>
+        <v>1.0474480699696</v>
       </c>
       <c r="J20">
-        <v>1.039432125845669</v>
+        <v>1.028071120661908</v>
       </c>
       <c r="K20">
-        <v>1.04191122410066</v>
+        <v>1.034130539009624</v>
       </c>
       <c r="L20">
-        <v>1.055209746300029</v>
+        <v>1.021927805646175</v>
       </c>
       <c r="M20">
-        <v>1.061435474851516</v>
+        <v>1.029380001084417</v>
       </c>
       <c r="N20">
-        <v>1.040908238688901</v>
+        <v>1.029531099574654</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032246212085536</v>
+        <v>0.9953203743501369</v>
       </c>
       <c r="D21">
-        <v>1.037796175840766</v>
+        <v>1.016491567365639</v>
       </c>
       <c r="E21">
-        <v>1.050686430801969</v>
+        <v>1.002216094044957</v>
       </c>
       <c r="F21">
-        <v>1.056906644236751</v>
+        <v>1.009594092152232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040569819248824</v>
+        <v>1.045455193934622</v>
       </c>
       <c r="J21">
-        <v>1.038859150593506</v>
+        <v>1.025015060156148</v>
       </c>
       <c r="K21">
-        <v>1.041369642113018</v>
+        <v>1.031167095815003</v>
       </c>
       <c r="L21">
-        <v>1.054212755839391</v>
+        <v>1.017155603125291</v>
       </c>
       <c r="M21">
-        <v>1.060410675091587</v>
+        <v>1.024395953001484</v>
       </c>
       <c r="N21">
-        <v>1.040334449746159</v>
+        <v>1.02647069911244</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031635922162055</v>
+        <v>0.9919459144942758</v>
       </c>
       <c r="D22">
-        <v>1.037324490690954</v>
+        <v>1.013954578996198</v>
       </c>
       <c r="E22">
-        <v>1.049930376564757</v>
+        <v>0.9984843120541226</v>
       </c>
       <c r="F22">
-        <v>1.05613375427469</v>
+        <v>1.005729438193335</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040385488293526</v>
+        <v>1.044161569669824</v>
       </c>
       <c r="J22">
-        <v>1.0384984225161</v>
+        <v>1.023043725398398</v>
       </c>
       <c r="K22">
-        <v>1.041028497940031</v>
+        <v>1.029254570708681</v>
       </c>
       <c r="L22">
-        <v>1.053586449088903</v>
+        <v>1.014085854935189</v>
       </c>
       <c r="M22">
-        <v>1.059766703011515</v>
+        <v>1.02118824188809</v>
       </c>
       <c r="N22">
-        <v>1.039973209393506</v>
+        <v>1.024496564833219</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031959426761049</v>
+        <v>0.9937425055759944</v>
       </c>
       <c r="D23">
-        <v>1.037574529177496</v>
+        <v>1.01530493404822</v>
       </c>
       <c r="E23">
-        <v>1.050331063255422</v>
+        <v>1.000470429176973</v>
       </c>
       <c r="F23">
-        <v>1.056543383440691</v>
+        <v>1.007786470802434</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040483329534591</v>
+        <v>1.04485129075656</v>
       </c>
       <c r="J23">
-        <v>1.038689696117693</v>
+        <v>1.024093630890073</v>
       </c>
       <c r="K23">
-        <v>1.041209404347548</v>
+        <v>1.030273238995882</v>
       </c>
       <c r="L23">
-        <v>1.053918414731682</v>
+        <v>1.01571997696565</v>
       </c>
       <c r="M23">
-        <v>1.060108050463342</v>
+        <v>1.022895963143517</v>
       </c>
       <c r="N23">
-        <v>1.040164754625554</v>
+        <v>1.025547961311118</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033233508225176</v>
+        <v>1.00064842811105</v>
       </c>
       <c r="D24">
-        <v>1.038559137919325</v>
+        <v>1.020503035671796</v>
       </c>
       <c r="E24">
-        <v>1.051911009525379</v>
+        <v>1.008120694040946</v>
       </c>
       <c r="F24">
-        <v>1.058158146174763</v>
+        <v>1.015705544645952</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040865770365976</v>
+        <v>1.047480812860824</v>
       </c>
       <c r="J24">
-        <v>1.039441723724949</v>
+        <v>1.028121540153478</v>
       </c>
       <c r="K24">
-        <v>1.04192029304763</v>
+        <v>1.034179414176722</v>
       </c>
       <c r="L24">
-        <v>1.055226470108864</v>
+        <v>1.022006686358244</v>
       </c>
       <c r="M24">
-        <v>1.061452661820667</v>
+        <v>1.02946235489587</v>
       </c>
       <c r="N24">
-        <v>1.040917850198271</v>
+        <v>1.029581590667685</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034712952475888</v>
+        <v>1.008341648334574</v>
       </c>
       <c r="D25">
-        <v>1.03970215000097</v>
+        <v>1.026306816878439</v>
       </c>
       <c r="E25">
-        <v>1.053749566715933</v>
+        <v>1.016676764217085</v>
       </c>
       <c r="F25">
-        <v>1.060036297874178</v>
+        <v>1.024553315921018</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041303853279963</v>
+        <v>1.050364396764707</v>
       </c>
       <c r="J25">
-        <v>1.040312310197594</v>
+        <v>1.03259150730554</v>
       </c>
       <c r="K25">
-        <v>1.042742466222921</v>
+        <v>1.038510031693302</v>
       </c>
       <c r="L25">
-        <v>1.056746733888052</v>
+        <v>1.029021595656471</v>
       </c>
       <c r="M25">
-        <v>1.063014557958875</v>
+        <v>1.036782065672194</v>
       </c>
       <c r="N25">
-        <v>1.041789673003564</v>
+        <v>1.034057905685815</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014242064455636</v>
+        <v>1.011127210561776</v>
       </c>
       <c r="D2">
-        <v>1.03076659380097</v>
+        <v>1.033354829217999</v>
       </c>
       <c r="E2">
-        <v>1.023267159976089</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.031361188385549</v>
+        <v>1.039013571431557</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052538024144551</v>
+        <v>1.05490731555173</v>
       </c>
       <c r="J2">
-        <v>1.036004984982228</v>
+        <v>1.032980126955846</v>
       </c>
       <c r="K2">
-        <v>1.041813316488473</v>
+        <v>1.04436824216029</v>
       </c>
       <c r="L2">
-        <v>1.034411590508632</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.042400240333026</v>
+        <v>1.049954879832879</v>
       </c>
       <c r="N2">
-        <v>1.037476230892335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014658782036661</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048108287545959</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042442470447317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018399946294829</v>
+        <v>1.015438628513235</v>
       </c>
       <c r="D3">
-        <v>1.033913293348435</v>
+        <v>1.036218402343888</v>
       </c>
       <c r="E3">
-        <v>1.027928175699775</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.036171814341606</v>
+        <v>1.041895404581206</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054047076069685</v>
+        <v>1.055921054506452</v>
       </c>
       <c r="J3">
-        <v>1.038401275571117</v>
+        <v>1.035517089603323</v>
       </c>
       <c r="K3">
-        <v>1.044129883914181</v>
+        <v>1.046407921684353</v>
       </c>
       <c r="L3">
-        <v>1.038215758398738</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.046361879336458</v>
+        <v>1.052018884280574</v>
       </c>
       <c r="N3">
-        <v>1.039875924488719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015525749912314</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049741789875698</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043882037119964</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021035054488541</v>
+        <v>1.018173708819483</v>
       </c>
       <c r="D4">
-        <v>1.035909121522794</v>
+        <v>1.038037547867864</v>
       </c>
       <c r="E4">
-        <v>1.030890177272467</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.039226938172677</v>
+        <v>1.04372928839407</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054992748210247</v>
+        <v>1.056551307762305</v>
       </c>
       <c r="J4">
-        <v>1.039915568795512</v>
+        <v>1.037123683405954</v>
       </c>
       <c r="K4">
-        <v>1.045592643137292</v>
+        <v>1.047697584980214</v>
       </c>
       <c r="L4">
-        <v>1.040629549177871</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.048873903328838</v>
+        <v>1.053327101724385</v>
       </c>
       <c r="N4">
-        <v>1.041392368183185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016074914183602</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050777142496193</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044794820292381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022130049610771</v>
+        <v>1.01931553813146</v>
       </c>
       <c r="D5">
-        <v>1.036738805758539</v>
+        <v>1.038799313197627</v>
       </c>
       <c r="E5">
-        <v>1.032122964632122</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.040498013184526</v>
+        <v>1.044496645046934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055383110563475</v>
+        <v>1.056812747433777</v>
       </c>
       <c r="J5">
-        <v>1.040543742093942</v>
+        <v>1.03779550362201</v>
       </c>
       <c r="K5">
-        <v>1.046199152787903</v>
+        <v>1.048237531893225</v>
       </c>
       <c r="L5">
-        <v>1.041633275825457</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.049918069802523</v>
+        <v>1.053874234575815</v>
       </c>
       <c r="N5">
-        <v>1.04202143355975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016305733218501</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.051210155278478</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045183724728911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022313165629048</v>
+        <v>1.019512191848982</v>
       </c>
       <c r="D6">
-        <v>1.036877572445551</v>
+        <v>1.038932671072666</v>
       </c>
       <c r="E6">
-        <v>1.032329239385382</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.040710666717602</v>
+        <v>1.04462941241006</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055448236850117</v>
+        <v>1.056859368579498</v>
       </c>
       <c r="J6">
-        <v>1.040648727440498</v>
+        <v>1.037913367412054</v>
       </c>
       <c r="K6">
-        <v>1.046300500468872</v>
+        <v>1.04833363011736</v>
       </c>
       <c r="L6">
-        <v>1.041801170432535</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.05009270469141</v>
+        <v>1.05397002595922</v>
       </c>
       <c r="N6">
-        <v>1.042126567997541</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016347622306665</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051285966627127</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045260356780055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021049735612804</v>
+        <v>1.01820426969811</v>
       </c>
       <c r="D7">
-        <v>1.035920244221605</v>
+        <v>1.038063619433191</v>
       </c>
       <c r="E7">
-        <v>1.030906698083432</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.039243973940503</v>
+        <v>1.043751226032267</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054997992313292</v>
+        <v>1.056563079161383</v>
       </c>
       <c r="J7">
-        <v>1.039923995305313</v>
+        <v>1.037147574914445</v>
       </c>
       <c r="K7">
-        <v>1.045600780185908</v>
+        <v>1.047720514865923</v>
       </c>
       <c r="L7">
-        <v>1.040643003847211</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.048887901701559</v>
+        <v>1.053345967069659</v>
       </c>
       <c r="N7">
-        <v>1.041400806659596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016086920109725</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050792072942986</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04483100935948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015658965706561</v>
+        <v>1.012614990326133</v>
       </c>
       <c r="D8">
-        <v>1.031838555493529</v>
+        <v>1.034349398733428</v>
       </c>
       <c r="E8">
-        <v>1.024853851114661</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.032999217366221</v>
+        <v>1.040008505976767</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053054495892028</v>
+        <v>1.055265528106624</v>
       </c>
       <c r="J8">
-        <v>1.036822484463656</v>
+        <v>1.033863481393746</v>
       </c>
       <c r="K8">
-        <v>1.042603855385104</v>
+        <v>1.045083350464773</v>
       </c>
       <c r="L8">
-        <v>1.03570736488316</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.043750002658201</v>
+        <v>1.050672493661502</v>
       </c>
       <c r="N8">
-        <v>1.038294891316796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01496562698335</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048676224646508</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.042970885244142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005715188831789</v>
+        <v>1.002301691132319</v>
       </c>
       <c r="D9">
-        <v>1.024323940258878</v>
+        <v>1.027509885573765</v>
       </c>
       <c r="E9">
-        <v>1.013751358737215</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.021529307232412</v>
+        <v>1.033148511506793</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049385846527554</v>
+        <v>1.052764073502237</v>
       </c>
       <c r="J9">
-        <v>1.031067730792218</v>
+        <v>1.027773431748678</v>
       </c>
       <c r="K9">
-        <v>1.037034331246697</v>
+        <v>1.040171862381053</v>
       </c>
       <c r="L9">
-        <v>1.02662520112609</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.03428248323116</v>
+        <v>1.045725733779629</v>
       </c>
       <c r="N9">
-        <v>1.032531965235064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012880967118485</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044761229256276</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039495001596146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9987560804776897</v>
+        <v>0.9951783823896583</v>
       </c>
       <c r="D10">
-        <v>1.019077512775538</v>
+        <v>1.022825361498121</v>
       </c>
       <c r="E10">
-        <v>1.006021750061536</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.013533561831685</v>
+        <v>1.028515564363331</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046763872008174</v>
+        <v>1.050994647846143</v>
       </c>
       <c r="J10">
-        <v>1.027019138638533</v>
+        <v>1.023584615186367</v>
       </c>
       <c r="K10">
-        <v>1.033110653224543</v>
+        <v>1.0367943740537</v>
       </c>
       <c r="L10">
-        <v>1.020283124517041</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.027662688617679</v>
+        <v>1.042388366107649</v>
       </c>
       <c r="N10">
-        <v>1.028477623616141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011467690283443</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042171146143201</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037123675809476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9956569506424033</v>
+        <v>0.9925917343682433</v>
       </c>
       <c r="D11">
-        <v>1.016744769501295</v>
+        <v>1.021276635611675</v>
       </c>
       <c r="E11">
-        <v>1.002588630408219</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.009979804312731</v>
+        <v>1.027386629134667</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045583783168369</v>
+        <v>1.050499873688124</v>
       </c>
       <c r="J11">
-        <v>1.025211528369419</v>
+        <v>1.02227598677377</v>
       </c>
       <c r="K11">
-        <v>1.031357665071407</v>
+        <v>1.035808158921815</v>
       </c>
       <c r="L11">
-        <v>1.017461893509622</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.024715938674326</v>
+        <v>1.041809916849278</v>
       </c>
       <c r="N11">
-        <v>1.026667446333109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011177237588433</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042147739496673</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036459154262453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9944922166533172</v>
+        <v>0.9917794747099999</v>
       </c>
       <c r="D12">
-        <v>1.015868674944699</v>
+        <v>1.020838885553502</v>
       </c>
       <c r="E12">
-        <v>1.001299707351424</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.008645225555595</v>
+        <v>1.027258475248511</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045138449838617</v>
+        <v>1.050397397330028</v>
       </c>
       <c r="J12">
-        <v>1.024531518861169</v>
+        <v>1.021935863158694</v>
       </c>
       <c r="K12">
-        <v>1.030698042746587</v>
+        <v>1.035577446775408</v>
       </c>
       <c r="L12">
-        <v>1.016402049309465</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.023608650026316</v>
+        <v>1.041881438033019</v>
       </c>
       <c r="N12">
-        <v>1.02598647113336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011169897534656</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042529436087675</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036296033909708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9947426821450622</v>
+        <v>0.9923078707157944</v>
       </c>
       <c r="D13">
-        <v>1.016057042532325</v>
+        <v>1.021254913992812</v>
       </c>
       <c r="E13">
-        <v>1.001576819018829</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.008932169360997</v>
+        <v>1.027923786623773</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045234296492622</v>
+        <v>1.050610506337184</v>
       </c>
       <c r="J13">
-        <v>1.024677778114791</v>
+        <v>1.022347554707728</v>
       </c>
       <c r="K13">
-        <v>1.030839924137833</v>
+        <v>1.035943220061573</v>
       </c>
       <c r="L13">
-        <v>1.016629939283239</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.023846754658668</v>
+        <v>1.042492570043454</v>
       </c>
       <c r="N13">
-        <v>1.026132938091898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011395215733749</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043288336072693</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036552158932156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9955609545391039</v>
+        <v>0.9932815175180844</v>
       </c>
       <c r="D14">
-        <v>1.016672549965159</v>
+        <v>1.021930470998843</v>
       </c>
       <c r="E14">
-        <v>1.00248237192278</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.00986978936637</v>
+        <v>1.028746040099782</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045547116125495</v>
+        <v>1.050900920974987</v>
       </c>
       <c r="J14">
-        <v>1.025155495991743</v>
+        <v>1.022972546786537</v>
       </c>
       <c r="K14">
-        <v>1.031303315794892</v>
+        <v>1.036466774391013</v>
       </c>
       <c r="L14">
-        <v>1.017374533316932</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.024624673640736</v>
+        <v>1.043161758846554</v>
       </c>
       <c r="N14">
-        <v>1.02661133438303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011655812385905</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043990082130171</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036923749226105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9960632983407255</v>
+        <v>0.9938227894244747</v>
       </c>
       <c r="D15">
-        <v>1.01705049721433</v>
+        <v>1.022294337358268</v>
       </c>
       <c r="E15">
-        <v>1.003038472453289</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.010445534401597</v>
+        <v>1.029138329254002</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045738919173566</v>
+        <v>1.051048003576294</v>
       </c>
       <c r="J15">
-        <v>1.025448684409127</v>
+        <v>1.0233021653043</v>
       </c>
       <c r="K15">
-        <v>1.031587690914171</v>
+        <v>1.036738053046081</v>
       </c>
       <c r="L15">
-        <v>1.017831703887553</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.025102267070102</v>
+        <v>1.043461897402097</v>
       </c>
       <c r="N15">
-        <v>1.026904939161596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011777219710736</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044264735690964</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037121408590688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9989598941862496</v>
+        <v>0.996759387027416</v>
       </c>
       <c r="D16">
-        <v>1.019231006682733</v>
+        <v>1.024220644347902</v>
       </c>
       <c r="E16">
-        <v>1.006247715634816</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.013767417121855</v>
+        <v>1.031017677889848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046841224886926</v>
+        <v>1.051786504706176</v>
       </c>
       <c r="J16">
-        <v>1.027137922094353</v>
+        <v>1.025024971497153</v>
       </c>
       <c r="K16">
-        <v>1.033225824331559</v>
+        <v>1.038130502052627</v>
       </c>
       <c r="L16">
-        <v>1.020468725496974</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.027856506422111</v>
+        <v>1.044813504693523</v>
       </c>
       <c r="N16">
-        <v>1.028596575758094</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012342713481468</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.045294455689317</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038109069399803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000753411302918</v>
+        <v>0.9985039620906551</v>
       </c>
       <c r="D17">
-        <v>1.020582145176833</v>
+        <v>1.025346036747451</v>
       </c>
       <c r="E17">
-        <v>1.008237200161871</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.015826088560846</v>
+        <v>1.032024722143573</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047520503569056</v>
+        <v>1.052197758400994</v>
       </c>
       <c r="J17">
-        <v>1.028182667781729</v>
+        <v>1.026019752471897</v>
       </c>
       <c r="K17">
-        <v>1.034238668741108</v>
+        <v>1.038923788474134</v>
       </c>
       <c r="L17">
-        <v>1.02210232661662</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.029562204880657</v>
+        <v>1.045493612408284</v>
       </c>
       <c r="N17">
-        <v>1.029642805104179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012641209931197</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045703461822961</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038672525777757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001791311071543</v>
+        <v>0.999355054149647</v>
       </c>
       <c r="D18">
-        <v>1.021364386797126</v>
+        <v>1.025849999559006</v>
       </c>
       <c r="E18">
-        <v>1.009389375344415</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.017018100826169</v>
+        <v>1.032317422516801</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0479124162836</v>
+        <v>1.052346762220131</v>
       </c>
       <c r="J18">
-        <v>1.028786815224917</v>
+        <v>1.026442448923653</v>
       </c>
       <c r="K18">
-        <v>1.034824258899584</v>
+        <v>1.039236963404387</v>
       </c>
       <c r="L18">
-        <v>1.023047980520635</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.0305494060644</v>
+        <v>1.045600695306531</v>
       </c>
       <c r="N18">
-        <v>1.030247810506034</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012714781549487</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.045551412651575</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038882350629007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002143832574497</v>
+        <v>0.9993767290185983</v>
       </c>
       <c r="D19">
-        <v>1.021630130946512</v>
+        <v>1.02577663304115</v>
       </c>
       <c r="E19">
-        <v>1.009780859105751</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.01742308106306</v>
+        <v>1.031944305735635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048045327142726</v>
+        <v>1.052252560807605</v>
       </c>
       <c r="J19">
-        <v>1.028991937289706</v>
+        <v>1.026328538402964</v>
       </c>
       <c r="K19">
-        <v>1.035023061399864</v>
+        <v>1.039102542716051</v>
       </c>
       <c r="L19">
-        <v>1.023369221720821</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.030884728888065</v>
+        <v>1.045171802107651</v>
       </c>
       <c r="N19">
-        <v>1.030453223867682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012580122436524</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044888311767503</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038793685006177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000561839830954</v>
+        <v>0.9970685329387882</v>
       </c>
       <c r="D20">
-        <v>1.020437789490491</v>
+        <v>1.024081423227746</v>
       </c>
       <c r="E20">
-        <v>1.008024606780689</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.015606125946914</v>
+        <v>1.029749174182663</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0474480699696</v>
+        <v>1.051480421524484</v>
       </c>
       <c r="J20">
-        <v>1.028071120661908</v>
+        <v>1.024712927307284</v>
       </c>
       <c r="K20">
-        <v>1.034130539009624</v>
+        <v>1.037713646286838</v>
       </c>
       <c r="L20">
-        <v>1.021927805646175</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.029380001084417</v>
+        <v>1.043288340980939</v>
       </c>
       <c r="N20">
-        <v>1.029531099574654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011860495628618</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042872875967533</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037815601675038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9953203743501369</v>
+        <v>0.9915857290176774</v>
       </c>
       <c r="D21">
-        <v>1.016491567365639</v>
+        <v>1.020451259190893</v>
       </c>
       <c r="E21">
-        <v>1.002216094044957</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.009594092152232</v>
+        <v>1.026089507541698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045455193934622</v>
+        <v>1.050062834551534</v>
       </c>
       <c r="J21">
-        <v>1.025015060156148</v>
+        <v>1.021439509121275</v>
       </c>
       <c r="K21">
-        <v>1.031167095815003</v>
+        <v>1.035055265566222</v>
       </c>
       <c r="L21">
-        <v>1.017155603125291</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.024395953001484</v>
+        <v>1.040592908628795</v>
       </c>
       <c r="N21">
-        <v>1.02647069911244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010726292320516</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040698954798813</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035939266471201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9919459144942758</v>
+        <v>0.9880804395610129</v>
       </c>
       <c r="D22">
-        <v>1.013954578996198</v>
+        <v>1.018139880037155</v>
       </c>
       <c r="E22">
-        <v>0.9984843120541226</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.005729438193335</v>
+        <v>1.023792391815131</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044161569669824</v>
+        <v>1.049150327754518</v>
       </c>
       <c r="J22">
-        <v>1.023043725398398</v>
+        <v>1.019352857719512</v>
       </c>
       <c r="K22">
-        <v>1.029254570708681</v>
+        <v>1.033360348720782</v>
       </c>
       <c r="L22">
-        <v>1.014085854935189</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.02118824188809</v>
+        <v>1.038906806135235</v>
       </c>
       <c r="N22">
-        <v>1.024496564833219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010007661647468</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.039364516856902</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034727407665353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9937425055759944</v>
+        <v>0.9899318614095176</v>
       </c>
       <c r="D23">
-        <v>1.01530493404822</v>
+        <v>1.019355356442156</v>
       </c>
       <c r="E23">
-        <v>1.000470429176973</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.007786470802434</v>
+        <v>1.025003643355537</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04485129075656</v>
+        <v>1.04962976622595</v>
       </c>
       <c r="J23">
-        <v>1.024093630890073</v>
+        <v>1.020449886204667</v>
       </c>
       <c r="K23">
-        <v>1.030273238995882</v>
+        <v>1.034248724214601</v>
       </c>
       <c r="L23">
-        <v>1.01571997696565</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.022895963143517</v>
+        <v>1.03979379792199</v>
       </c>
       <c r="N23">
-        <v>1.025547961311118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010381195253894</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.040066512150228</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035345899852028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00064842811105</v>
+        <v>0.9970776139230602</v>
       </c>
       <c r="D24">
-        <v>1.020503035671796</v>
+        <v>1.024065053329731</v>
       </c>
       <c r="E24">
-        <v>1.008120694040946</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.015705544645952</v>
+        <v>1.029699105662778</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047480812860824</v>
+        <v>1.05146069174732</v>
       </c>
       <c r="J24">
-        <v>1.028121540153478</v>
+        <v>1.024688624655219</v>
       </c>
       <c r="K24">
-        <v>1.034179414176722</v>
+        <v>1.03768234059921</v>
       </c>
       <c r="L24">
-        <v>1.022006686358244</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.02946235489587</v>
+        <v>1.043224000626902</v>
       </c>
       <c r="N24">
-        <v>1.029581590667685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011831819711589</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.04278128413308</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037766133337607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008341648334574</v>
+        <v>1.005047656312087</v>
       </c>
       <c r="D25">
-        <v>1.026306816878439</v>
+        <v>1.02933647990996</v>
       </c>
       <c r="E25">
-        <v>1.016676764217085</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.024553315921018</v>
+        <v>1.034971026496097</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050364396764707</v>
+        <v>1.053448362001654</v>
       </c>
       <c r="J25">
-        <v>1.03259150730554</v>
+        <v>1.029406332656504</v>
       </c>
       <c r="K25">
-        <v>1.038510031693302</v>
+        <v>1.04149583574391</v>
       </c>
       <c r="L25">
-        <v>1.029021595656471</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.036782065672194</v>
+        <v>1.04704967756766</v>
       </c>
       <c r="N25">
-        <v>1.034057905685815</v>
+        <v>1.013446472904234</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04580903510105</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040459596743497</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011127210561776</v>
+        <v>1.009996403267133</v>
       </c>
       <c r="D2">
-        <v>1.033354829217999</v>
+        <v>1.03177463773537</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.039013571431557</v>
+        <v>1.037896783123017</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05490731555173</v>
+        <v>1.054087608469333</v>
       </c>
       <c r="J2">
-        <v>1.032980126955846</v>
+        <v>1.031882179868852</v>
       </c>
       <c r="K2">
-        <v>1.04436824216029</v>
+        <v>1.042808362377067</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.049954879832879</v>
+        <v>1.048852244052237</v>
       </c>
       <c r="N2">
-        <v>1.014658782036661</v>
+        <v>1.015517425707967</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048108287545959</v>
+        <v>1.047235633825788</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042442470447317</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04134824219702</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023400807249137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015438628513235</v>
+        <v>1.01403427873515</v>
       </c>
       <c r="D3">
-        <v>1.036218402343888</v>
+        <v>1.034362258846606</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.041895404581206</v>
+        <v>1.040572781388861</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055921054506452</v>
+        <v>1.054956690696893</v>
       </c>
       <c r="J3">
-        <v>1.035517089603323</v>
+        <v>1.034149531730618</v>
       </c>
       <c r="K3">
-        <v>1.046407921684353</v>
+        <v>1.044573565044082</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.052018884280574</v>
+        <v>1.050711567376122</v>
       </c>
       <c r="N3">
-        <v>1.015525749912314</v>
+        <v>1.016127775742129</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049741789875698</v>
+        <v>1.048707148525548</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043882037119964</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042593453745376</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023770894328398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018173708819483</v>
+        <v>1.016597875495091</v>
       </c>
       <c r="D4">
-        <v>1.038037547867864</v>
+        <v>1.036007611166875</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.04372928839407</v>
+        <v>1.042277219041276</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056551307762305</v>
+        <v>1.05549566700595</v>
       </c>
       <c r="J4">
-        <v>1.037123683405954</v>
+        <v>1.035586328744736</v>
       </c>
       <c r="K4">
-        <v>1.047697584980214</v>
+        <v>1.045690043454704</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.053327101724385</v>
+        <v>1.051890827566142</v>
       </c>
       <c r="N4">
-        <v>1.016074914183602</v>
+        <v>1.016514782769304</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050777142496193</v>
+        <v>1.049640442843161</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044794820292381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043383863734507</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024002567860805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01931553813146</v>
+        <v>1.017668323183797</v>
       </c>
       <c r="D5">
-        <v>1.038799313197627</v>
+        <v>1.036697013295134</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.044496645046934</v>
+        <v>1.04299069716659</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056812747433777</v>
+        <v>1.055719060503942</v>
       </c>
       <c r="J5">
-        <v>1.03779550362201</v>
+        <v>1.036187303542015</v>
       </c>
       <c r="K5">
-        <v>1.048237531893225</v>
+        <v>1.046157810260334</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.053874234575815</v>
+        <v>1.052384233697177</v>
       </c>
       <c r="N5">
-        <v>1.016305733218501</v>
+        <v>1.016677461075644</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.051210155278478</v>
+        <v>1.0500309357411</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045183724728911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043722444719942</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024099708136883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019512191848982</v>
+        <v>1.017852400617923</v>
       </c>
       <c r="D6">
-        <v>1.038932671072666</v>
+        <v>1.036817804399576</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.04462941241006</v>
+        <v>1.043114083113623</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056859368579498</v>
+        <v>1.055759072857965</v>
       </c>
       <c r="J6">
-        <v>1.037913367412054</v>
+        <v>1.036292685749714</v>
       </c>
       <c r="K6">
-        <v>1.04833363011736</v>
+        <v>1.046241372939073</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.05397002595922</v>
+        <v>1.052470669822594</v>
       </c>
       <c r="N6">
-        <v>1.016347622306665</v>
+        <v>1.01670689655667</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051285966627127</v>
+        <v>1.050099343246792</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045260356780055</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043791085088177</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024117828350243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01820426969811</v>
+        <v>1.016637757020692</v>
       </c>
       <c r="D7">
-        <v>1.038063619433191</v>
+        <v>1.036039486737925</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.043751226032267</v>
+        <v>1.042304173092542</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056563079161383</v>
+        <v>1.05551050170813</v>
       </c>
       <c r="J7">
-        <v>1.037147574914445</v>
+        <v>1.035619295812552</v>
       </c>
       <c r="K7">
-        <v>1.047720514865923</v>
+        <v>1.045718704348539</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.053345967069659</v>
+        <v>1.051914648621866</v>
       </c>
       <c r="N7">
-        <v>1.016086920109725</v>
+        <v>1.016552992821981</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050792072942986</v>
+        <v>1.049659295376227</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04483100935948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043426110519079</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024011766981972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012614990326133</v>
+        <v>1.011425459648908</v>
       </c>
       <c r="D8">
-        <v>1.034349398733428</v>
+        <v>1.032698222130223</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.040008505976767</v>
+        <v>1.038840977755582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055265528106624</v>
+        <v>1.054408697868598</v>
       </c>
       <c r="J8">
-        <v>1.033863481393746</v>
+        <v>1.032707346290292</v>
       </c>
       <c r="K8">
-        <v>1.045083350464773</v>
+        <v>1.0434527675977</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.050672493661502</v>
+        <v>1.04951932203598</v>
       </c>
       <c r="N8">
-        <v>1.01496562698335</v>
+        <v>1.01582451894937</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048676224646508</v>
+        <v>1.047763576261524</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.042970885244142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041828936216008</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023542461748669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002301691132319</v>
+        <v>1.001786425839879</v>
       </c>
       <c r="D9">
-        <v>1.027509885573765</v>
+        <v>1.026531150981235</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.033148511506793</v>
+        <v>1.032484262605351</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052764073502237</v>
+        <v>1.052258699644958</v>
       </c>
       <c r="J9">
-        <v>1.027773431748678</v>
+        <v>1.027276258136666</v>
       </c>
       <c r="K9">
-        <v>1.040171862381053</v>
+        <v>1.039207960056467</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.045725733779629</v>
+        <v>1.045071408045315</v>
       </c>
       <c r="N9">
-        <v>1.012880967118485</v>
+        <v>1.014371371395403</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044761229256276</v>
+        <v>1.044243377163392</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039495001596146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038824164557887</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022637113372842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9951783823896583</v>
+        <v>0.9951880016308987</v>
       </c>
       <c r="D10">
-        <v>1.022825361498121</v>
+        <v>1.022349124760229</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.028515564363331</v>
+        <v>1.02823187118784</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050994647846143</v>
+        <v>1.050751024289526</v>
       </c>
       <c r="J10">
-        <v>1.023584615186367</v>
+        <v>1.02359384752151</v>
       </c>
       <c r="K10">
-        <v>1.0367943740537</v>
+        <v>1.036326252326708</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.042388366107649</v>
+        <v>1.042109437139374</v>
       </c>
       <c r="N10">
-        <v>1.011467690283443</v>
+        <v>1.013514525757331</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042171146143201</v>
+        <v>1.041950406686004</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037123675809476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03680507190799</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022023399673957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9925917343682433</v>
+        <v>0.9928117975824664</v>
       </c>
       <c r="D11">
-        <v>1.021276635611675</v>
+        <v>1.020990056054446</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.027386629134667</v>
+        <v>1.027250693046395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050499873688124</v>
+        <v>1.050355197238197</v>
       </c>
       <c r="J11">
-        <v>1.02227598677377</v>
+        <v>1.022486702134412</v>
       </c>
       <c r="K11">
-        <v>1.035808158921815</v>
+        <v>1.03552669728275</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.041809916849278</v>
+        <v>1.041676370652077</v>
       </c>
       <c r="N11">
-        <v>1.011177237588433</v>
+        <v>1.013542643020557</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042147739496673</v>
+        <v>1.042042106086118</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036459154262453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036275741448435</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021914990797995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9917794747099999</v>
+        <v>0.9920567798754093</v>
       </c>
       <c r="D12">
-        <v>1.020838885553502</v>
+        <v>1.0206031685201</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.027258475248511</v>
+        <v>1.027163263082114</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050397397330028</v>
+        <v>1.050279341917148</v>
       </c>
       <c r="J12">
-        <v>1.021935863158694</v>
+        <v>1.022201157435522</v>
       </c>
       <c r="K12">
-        <v>1.035577446775408</v>
+        <v>1.035346010340894</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.041881438033019</v>
+        <v>1.041787926657808</v>
       </c>
       <c r="N12">
-        <v>1.011169897534656</v>
+        <v>1.013630480149519</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042529436087675</v>
+        <v>1.042455494576066</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036296033909708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03614799301181</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021911134652469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9923078707157944</v>
+        <v>0.9925070364534161</v>
       </c>
       <c r="D13">
-        <v>1.021254913992812</v>
+        <v>1.020952857481286</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.027923786623773</v>
+        <v>1.027778043483124</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050610506337184</v>
+        <v>1.050458051573589</v>
       </c>
       <c r="J13">
-        <v>1.022347554707728</v>
+        <v>1.022538137718851</v>
       </c>
       <c r="K13">
-        <v>1.035943220061573</v>
+        <v>1.035646625213299</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.042492570043454</v>
+        <v>1.042349417464493</v>
       </c>
       <c r="N13">
-        <v>1.011395215733749</v>
+        <v>1.013743605044068</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043288336072693</v>
+        <v>1.043175170420124</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036552158932156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036357802628121</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021996711588267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9932815175180844</v>
+        <v>0.9933678279268717</v>
       </c>
       <c r="D14">
-        <v>1.021930470998843</v>
+        <v>1.021531657499058</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.028746040099782</v>
+        <v>1.028525799809287</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050900920974987</v>
+        <v>1.050698179440265</v>
       </c>
       <c r="J14">
-        <v>1.022972546786537</v>
+        <v>1.02305519220749</v>
       </c>
       <c r="K14">
-        <v>1.036466774391013</v>
+        <v>1.036075081616122</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.043161758846554</v>
+        <v>1.042945382784461</v>
       </c>
       <c r="N14">
-        <v>1.011655812385905</v>
+        <v>1.013835951960597</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043990082130171</v>
+        <v>1.0438190544682</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036923749226105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036662288128605</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022097403131961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9938227894244747</v>
+        <v>0.993851023246711</v>
       </c>
       <c r="D15">
-        <v>1.022294337358268</v>
+        <v>1.021845480809451</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.029138329254002</v>
+        <v>1.028879362096441</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051048003576294</v>
+        <v>1.050819225364977</v>
       </c>
       <c r="J15">
-        <v>1.0233021653043</v>
+        <v>1.02332921095598</v>
       </c>
       <c r="K15">
-        <v>1.036738053046081</v>
+        <v>1.036297149215776</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.043461897402097</v>
+        <v>1.043207438788713</v>
       </c>
       <c r="N15">
-        <v>1.011777219710736</v>
+        <v>1.013872236682208</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044264735690964</v>
+        <v>1.04406361213964</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037121408590688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036825721327621</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022146548690719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.996759387027416</v>
+        <v>0.9964969775092855</v>
       </c>
       <c r="D16">
-        <v>1.024220644347902</v>
+        <v>1.023517081469751</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.031017677889848</v>
+        <v>1.030561249480159</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051786504706176</v>
+        <v>1.051425048533891</v>
       </c>
       <c r="J16">
-        <v>1.025024971497153</v>
+        <v>1.024773039627363</v>
       </c>
       <c r="K16">
-        <v>1.038130502052627</v>
+        <v>1.037438854185342</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.044813504693523</v>
+        <v>1.044364672902195</v>
       </c>
       <c r="N16">
-        <v>1.012342713481468</v>
+        <v>1.014037596515379</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.045294455689317</v>
+        <v>1.044939689851338</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038109069399803</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037636392917158</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022389499937952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9985039620906551</v>
+        <v>0.9980903419041611</v>
       </c>
       <c r="D17">
-        <v>1.025346036747451</v>
+        <v>1.024505364811284</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.032024722143573</v>
+        <v>1.031462417132942</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052197758400994</v>
+        <v>1.051764794429489</v>
       </c>
       <c r="J17">
-        <v>1.026019752471897</v>
+        <v>1.025622103772831</v>
       </c>
       <c r="K17">
-        <v>1.038923788474134</v>
+        <v>1.038096948726693</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.045493612408284</v>
+        <v>1.044940403096819</v>
       </c>
       <c r="N17">
-        <v>1.012641209931197</v>
+        <v>1.014145865330567</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045703461822961</v>
+        <v>1.045266150495455</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038672525777757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038104509345657</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022523573484806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.999355054149647</v>
+        <v>0.9988865925106503</v>
       </c>
       <c r="D18">
-        <v>1.025849999559006</v>
+        <v>1.024955850844909</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.032317422516801</v>
+        <v>1.031713598167628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052346762220131</v>
+        <v>1.051885809362676</v>
       </c>
       <c r="J18">
-        <v>1.026442448923653</v>
+        <v>1.025991729130338</v>
       </c>
       <c r="K18">
-        <v>1.039236963404387</v>
+        <v>1.038357282618472</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.045600695306531</v>
+        <v>1.045006481457119</v>
       </c>
       <c r="N18">
-        <v>1.012714781549487</v>
+        <v>1.014161119360874</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.045551412651575</v>
+        <v>1.045081590067598</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038882350629007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038275836772942</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02256093213002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9993767290185983</v>
+        <v>0.9989399426445444</v>
       </c>
       <c r="D19">
-        <v>1.02577663304115</v>
+        <v>1.024906126531488</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.031944305735635</v>
+        <v>1.031358067300576</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052252560807605</v>
+        <v>1.051803769472381</v>
       </c>
       <c r="J19">
-        <v>1.026328538402964</v>
+        <v>1.025908195744738</v>
       </c>
       <c r="K19">
-        <v>1.039102542716051</v>
+        <v>1.038246048673708</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.045171802107651</v>
+        <v>1.044594853034973</v>
       </c>
       <c r="N19">
-        <v>1.012580122436524</v>
+        <v>1.014070490985334</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044888311767503</v>
+        <v>1.044431992034246</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038793685006177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038204189942633</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022504870195654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9970685329387882</v>
+        <v>0.9969003210642314</v>
       </c>
       <c r="D20">
-        <v>1.024081423227746</v>
+        <v>1.023446500294117</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.029749174182663</v>
+        <v>1.0293430918885</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051480421524484</v>
+        <v>1.051154134584388</v>
       </c>
       <c r="J20">
-        <v>1.024712927307284</v>
+        <v>1.024551255276515</v>
       </c>
       <c r="K20">
-        <v>1.037713646286838</v>
+        <v>1.037089230504173</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.043288340980939</v>
+        <v>1.042888882172808</v>
       </c>
       <c r="N20">
-        <v>1.011860495628618</v>
+        <v>1.013673357069277</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042872875967533</v>
+        <v>1.042556747592283</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037815601675038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03739058725026</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022189420020457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9915857290176774</v>
+        <v>0.9920084762450143</v>
       </c>
       <c r="D21">
-        <v>1.020451259190893</v>
+        <v>1.020330032065775</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.026089507541698</v>
+        <v>1.026082655128836</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050062834551534</v>
+        <v>1.050004069306528</v>
       </c>
       <c r="J21">
-        <v>1.021439509121275</v>
+        <v>1.021844161736421</v>
       </c>
       <c r="K21">
-        <v>1.035055265566222</v>
+        <v>1.034936217406338</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.040592908628795</v>
+        <v>1.040586177615476</v>
       </c>
       <c r="N21">
-        <v>1.010726292320516</v>
+        <v>1.01337593299551</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040698954798813</v>
+        <v>1.040693627654521</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035939266471201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03587189910004</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021729089412331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9880804395610129</v>
+        <v>0.9888802954686655</v>
       </c>
       <c r="D22">
-        <v>1.018139880037155</v>
+        <v>1.01834617937998</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.023792391815131</v>
+        <v>1.024040452334319</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049150327754518</v>
+        <v>1.04926184352605</v>
       </c>
       <c r="J22">
-        <v>1.019352857719512</v>
+        <v>1.02011642272858</v>
       </c>
       <c r="K22">
-        <v>1.033360348720782</v>
+        <v>1.033562750352439</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.038906806135235</v>
+        <v>1.039150247444809</v>
       </c>
       <c r="N22">
-        <v>1.010007661647468</v>
+        <v>1.013181482945639</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039364516856902</v>
+        <v>1.039557184609453</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034727407665353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034886026745597</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021435059212244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9899318614095176</v>
+        <v>0.99051297452652</v>
       </c>
       <c r="D23">
-        <v>1.019355356442156</v>
+        <v>1.019375190513074</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.025003643355537</v>
+        <v>1.025105734575396</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04962976622595</v>
+        <v>1.049644314750257</v>
       </c>
       <c r="J23">
-        <v>1.020449886204667</v>
+        <v>1.02100542891913</v>
       </c>
       <c r="K23">
-        <v>1.034248724214601</v>
+        <v>1.034268193242894</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.03979379792199</v>
+        <v>1.03989403720394</v>
       </c>
       <c r="N23">
-        <v>1.010381195253894</v>
+        <v>1.013232944558575</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040066512150228</v>
+        <v>1.040145844864419</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035345899852028</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035374234988437</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021582521088635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9970776139230602</v>
+        <v>0.9969163649343024</v>
       </c>
       <c r="D24">
-        <v>1.024065053329731</v>
+        <v>1.023434873614012</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.029699105662778</v>
+        <v>1.029296781935184</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05146069174732</v>
+        <v>1.051136857687559</v>
       </c>
       <c r="J24">
-        <v>1.024688624655219</v>
+        <v>1.024533635767425</v>
       </c>
       <c r="K24">
-        <v>1.03768234059921</v>
+        <v>1.037062576552778</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.043224000626902</v>
+        <v>1.042828231479764</v>
       </c>
       <c r="N24">
-        <v>1.011831819711589</v>
+        <v>1.013652635983376</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.04278128413308</v>
+        <v>1.04246806030838</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037766133337607</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037341736259563</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022174680530169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005047656312087</v>
+        <v>1.004333893618447</v>
       </c>
       <c r="D25">
-        <v>1.02933647990996</v>
+        <v>1.028166487766361</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.034971026496097</v>
+        <v>1.034162366476682</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053448362001654</v>
+        <v>1.052843167834386</v>
       </c>
       <c r="J25">
-        <v>1.029406332656504</v>
+        <v>1.028716280077891</v>
       </c>
       <c r="K25">
-        <v>1.04149583574391</v>
+        <v>1.040342742189687</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.04704967756766</v>
+        <v>1.046252531762527</v>
       </c>
       <c r="N25">
-        <v>1.013446472904234</v>
+        <v>1.014728880479409</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04580903510105</v>
+        <v>1.045178151974532</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040459596743497</v>
+        <v>1.039657794316414</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022883333446504</v>
       </c>
     </row>
   </sheetData>
